--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -1,34 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770AB2A0-CD2D-4E44-8F3B-C9B8371AB461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="1580" windowWidth="36380" windowHeight="20160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9980" yWindow="1580" windowWidth="36380" windowHeight="20160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="196">
   <si>
     <t>PCV-1</t>
   </si>
@@ -481,9 +475,6 @@
   </si>
   <si>
     <t>KJ641714</t>
-  </si>
-  <si>
-    <t>Cyclovirus-3</t>
   </si>
   <si>
     <t>Bat circovirus isolate BtRp-CV-14/GD2012</t>
@@ -624,7 +615,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -763,7 +754,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="316">
+  <cellStyleXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -963,6 +954,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1100,7 +1105,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="316">
+  <cellStyles count="330">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1263,6 +1268,13 @@
     <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1416,6 +1428,13 @@
     <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="312" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="328" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1752,14 +1771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" style="2" customWidth="1"/>
@@ -1771,9 +1790,9 @@
     <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>58</v>
@@ -1782,7 +1801,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>60</v>
@@ -1791,13 +1810,13 @@
         <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -1808,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>2</v>
@@ -1817,13 +1836,13 @@
         <v>53</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>146</v>
       </c>
@@ -1834,7 +1853,7 @@
         <v>147</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>2</v>
@@ -1843,13 +1862,13 @@
         <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
@@ -1860,7 +1879,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>2</v>
@@ -1875,7 +1894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
@@ -1886,7 +1905,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>2</v>
@@ -1901,7 +1920,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
@@ -1912,7 +1931,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>2</v>
@@ -1927,7 +1946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
@@ -1938,7 +1957,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>2</v>
@@ -1953,7 +1972,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
@@ -1964,7 +1983,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>2</v>
@@ -1979,7 +1998,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
@@ -1990,7 +2009,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>2</v>
@@ -2005,7 +2024,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
@@ -2016,7 +2035,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>2</v>
@@ -2031,7 +2050,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
@@ -2042,7 +2061,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>2</v>
@@ -2057,7 +2076,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -2068,7 +2087,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>2</v>
@@ -2083,7 +2102,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
@@ -2094,7 +2113,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>2</v>
@@ -2109,7 +2128,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>39</v>
       </c>
@@ -2120,7 +2139,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>2</v>
@@ -2135,7 +2154,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -2146,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>2</v>
@@ -2161,7 +2180,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
@@ -2172,7 +2191,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>2</v>
@@ -2187,7 +2206,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
@@ -2198,7 +2217,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>2</v>
@@ -2213,7 +2232,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
@@ -2224,7 +2243,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>2</v>
@@ -2239,7 +2258,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
@@ -2250,7 +2269,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>2</v>
@@ -2265,7 +2284,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -2276,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>2</v>
@@ -2291,226 +2310,224 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>87</v>
-      </c>
+    <row r="21" spans="1:8">
+      <c r="A21" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="10"/>
       <c r="G21" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>87</v>
+        <v>156</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>87</v>
+        <v>156</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>87</v>
+        <v>156</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>87</v>
+        <v>156</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>87</v>
+        <v>156</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>87</v>
+        <v>156</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>87</v>
+        <v>156</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>62</v>
@@ -2519,24 +2536,24 @@
         <v>63</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>62</v>
@@ -2545,24 +2562,24 @@
         <v>63</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>62</v>
@@ -2571,24 +2588,24 @@
         <v>63</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>62</v>
@@ -2597,24 +2614,24 @@
         <v>63</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>62</v>
@@ -2623,24 +2640,24 @@
         <v>63</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>62</v>
@@ -2649,24 +2666,24 @@
         <v>63</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>167</v>
+        <v>137</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>62</v>
@@ -2675,24 +2692,24 @@
         <v>63</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>62</v>
@@ -2701,50 +2718,50 @@
         <v>63</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>129</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E37" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="2" t="s">
         <v>63</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>62</v>
@@ -2753,302 +2770,302 @@
         <v>63</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>63</v>
+      <c r="F39" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>63</v>
+      <c r="F40" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>63</v>
+        <v>156</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>63</v>
+        <v>156</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>63</v>
+        <v>156</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>63</v>
+        <v>156</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>63</v>
+        <v>156</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>151</v>
+        <v>156</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>62</v>
+        <v>156</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="B49" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>87</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G157">
-    <sortCondition ref="E2:E157"/>
-    <sortCondition ref="F2:F157"/>
+  <sortState ref="A2:H49">
+    <sortCondition ref="E2:E49"/>
+    <sortCondition ref="F2:F49"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EA8F78-4F79-CC40-9FCD-B9EFAFAFB001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="1580" windowWidth="36380" windowHeight="20160" tabRatio="500"/>
+    <workbookView xWindow="9980" yWindow="1580" windowWidth="36380" windowHeight="20160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -606,16 +612,16 @@
     <t>Unclassified</t>
   </si>
   <si>
-    <t>Unclassified-2</t>
-  </si>
-  <si>
-    <t>Unclassified-1</t>
+    <t>CRESS-1</t>
+  </si>
+  <si>
+    <t>CRESS-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1771,14 +1777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G42" sqref="A1:H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" style="2" customWidth="1"/>
@@ -1790,7 +1796,7 @@
     <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
@@ -1816,525 +1822,525 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="G21" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>64</v>
       </c>
@@ -2360,7 +2366,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>112</v>
       </c>
@@ -2386,7 +2392,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>113</v>
       </c>
@@ -2412,7 +2418,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>118</v>
       </c>
@@ -2438,7 +2444,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>119</v>
       </c>
@@ -2464,7 +2470,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>122</v>
       </c>
@@ -2490,7 +2496,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>124</v>
       </c>
@@ -2516,7 +2522,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>126</v>
       </c>
@@ -2542,7 +2548,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>131</v>
       </c>
@@ -2568,7 +2574,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>133</v>
       </c>
@@ -2594,7 +2600,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>134</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>135</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>128</v>
       </c>
@@ -2672,7 +2678,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>137</v>
       </c>
@@ -2698,7 +2704,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>143</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>140</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>142</v>
       </c>
@@ -2776,7 +2782,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>176</v>
       </c>
@@ -2802,7 +2808,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>177</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>78</v>
       </c>
@@ -2838,11 +2844,11 @@
       <c r="C41" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>87</v>
+      <c r="D41" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>87</v>
@@ -2854,7 +2860,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>67</v>
       </c>
@@ -2864,11 +2870,11 @@
       <c r="C42" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>87</v>
+      <c r="D42" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>87</v>
@@ -2880,7 +2886,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>69</v>
       </c>
@@ -2890,11 +2896,11 @@
       <c r="C43" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>87</v>
+      <c r="D43" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>87</v>
@@ -2906,7 +2912,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>71</v>
       </c>
@@ -2916,11 +2922,11 @@
       <c r="C44" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>87</v>
+      <c r="D44" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>87</v>
@@ -2932,7 +2938,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>73</v>
       </c>
@@ -2942,11 +2948,11 @@
       <c r="C45" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>87</v>
+      <c r="D45" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>87</v>
@@ -2958,7 +2964,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>75</v>
       </c>
@@ -2968,11 +2974,11 @@
       <c r="C46" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>87</v>
+      <c r="D46" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>87</v>
@@ -2984,7 +2990,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>81</v>
       </c>
@@ -2994,11 +3000,11 @@
       <c r="C47" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>87</v>
+      <c r="D47" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>87</v>
@@ -3010,7 +3016,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>84</v>
       </c>
@@ -3020,11 +3026,11 @@
       <c r="C48" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>87</v>
+      <c r="D48" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>87</v>
@@ -3036,7 +3042,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>178</v>
       </c>
@@ -3046,11 +3052,11 @@
       <c r="C49" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>87</v>
+      <c r="D49" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>193</v>
@@ -3063,7 +3069,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H49">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
     <sortCondition ref="E2:E49"/>
     <sortCondition ref="F2:F49"/>
   </sortState>

--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EA8F78-4F79-CC40-9FCD-B9EFAFAFB001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBBCF3A-8BFD-A645-AE0B-2E99F595722F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="1580" windowWidth="36380" windowHeight="20160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26720" yWindow="3760" windowWidth="21380" windowHeight="20400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="213">
   <si>
     <t>PCV-1</t>
   </si>
@@ -616,6 +616,57 @@
   </si>
   <si>
     <t>CRESS-2</t>
+  </si>
+  <si>
+    <t>MK059763</t>
+  </si>
+  <si>
+    <t>MF669476</t>
+  </si>
+  <si>
+    <t>KJ888053</t>
+  </si>
+  <si>
+    <t>MK059757</t>
+  </si>
+  <si>
+    <t>Brisavirus</t>
+  </si>
+  <si>
+    <t>Gemininvirus</t>
+  </si>
+  <si>
+    <t>Gemininviridae</t>
+  </si>
+  <si>
+    <t>Smacovirus</t>
+  </si>
+  <si>
+    <t>Vientovirus</t>
+  </si>
+  <si>
+    <t>HLVV</t>
+  </si>
+  <si>
+    <t>CBSV</t>
+  </si>
+  <si>
+    <t>EACMKV</t>
+  </si>
+  <si>
+    <t>L-BrV-RC</t>
+  </si>
+  <si>
+    <t>Human lung-associated brisavirus RC</t>
+  </si>
+  <si>
+    <t>East African cassava mosaic Kenya virus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cattle blood-associated circovirus-like virus </t>
+  </si>
+  <si>
+    <t>Human lung-associated vientovirus FB</t>
   </si>
 </sst>
 </file>
@@ -1778,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G42" sqref="A1:H49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3068,6 +3119,110 @@
         <v>156</v>
       </c>
     </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
     <sortCondition ref="E2:E49"/>

--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBBCF3A-8BFD-A645-AE0B-2E99F595722F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668D638C-9AC9-3B4B-8A0F-322576ED851C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26720" yWindow="3760" windowWidth="21380" windowHeight="20400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="216">
   <si>
     <t>PCV-1</t>
   </si>
@@ -667,6 +667,15 @@
   </si>
   <si>
     <t>Human lung-associated vientovirus FB</t>
+  </si>
+  <si>
+    <t>Redondoviridae</t>
+  </si>
+  <si>
+    <t>Smacoviridae</t>
+  </si>
+  <si>
+    <t>Porprismacovirus</t>
   </si>
 </sst>
 </file>
@@ -1831,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:H53"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D49" sqref="A1:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3130,7 +3139,7 @@
         <v>212</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>204</v>
@@ -3156,10 +3165,10 @@
         <v>211</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>203</v>
@@ -3208,7 +3217,7 @@
         <v>209</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>200</v>

--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668D638C-9AC9-3B4B-8A0F-322576ED851C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37983AF-1685-AF48-A2D5-BDE34F25215B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1840,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D49" sqref="A1:H53"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C47" sqref="A1:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2904,8 +2904,8 @@
       <c r="C41" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>192</v>
+      <c r="D41" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>194</v>
@@ -2930,8 +2930,8 @@
       <c r="C42" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>192</v>
+      <c r="D42" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>194</v>
@@ -2956,8 +2956,8 @@
       <c r="C43" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>192</v>
+      <c r="D43" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>194</v>
@@ -2982,8 +2982,8 @@
       <c r="C44" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>192</v>
+      <c r="D44" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>194</v>
@@ -3008,8 +3008,8 @@
       <c r="C45" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>192</v>
+      <c r="D45" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>194</v>
@@ -3034,8 +3034,8 @@
       <c r="C46" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>192</v>
+      <c r="D46" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>194</v>
@@ -3060,8 +3060,8 @@
       <c r="C47" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>192</v>
+      <c r="D47" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>194</v>
@@ -3086,8 +3086,8 @@
       <c r="C48" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>192</v>
+      <c r="D48" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>194</v>
@@ -3112,8 +3112,8 @@
       <c r="C49" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>192</v>
+      <c r="D49" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>195</v>

--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37983AF-1685-AF48-A2D5-BDE34F25215B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33986C9A-779F-2E4B-8B35-D5B0E8F3C869}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -738,7 +738,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,6 +799,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1152,7 +1158,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1170,6 +1176,7 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="330">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1840,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C47" sqref="A1:H53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3103,22 +3110,22 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="13" t="s">
         <v>193</v>
       </c>
       <c r="G49" s="11" t="s">

--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33986C9A-779F-2E4B-8B35-D5B0E8F3C869}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519E4BF-F845-8E43-BB0E-E70B2CD47D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4520" yWindow="3740" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="367">
   <si>
     <t>PCV-1</t>
   </si>
@@ -676,13 +676,466 @@
   </si>
   <si>
     <t>Porprismacovirus</t>
+  </si>
+  <si>
+    <t>NC_017916</t>
+  </si>
+  <si>
+    <t>NC_023887</t>
+  </si>
+  <si>
+    <t>NC_030120</t>
+  </si>
+  <si>
+    <t>NC_030122</t>
+  </si>
+  <si>
+    <t>NC_030121</t>
+  </si>
+  <si>
+    <t>NC_027777</t>
+  </si>
+  <si>
+    <t>NC_021203</t>
+  </si>
+  <si>
+    <t>NC_030127</t>
+  </si>
+  <si>
+    <t>NC_024774</t>
+  </si>
+  <si>
+    <t>NC_024775</t>
+  </si>
+  <si>
+    <t>NC_024773</t>
+  </si>
+  <si>
+    <t>NC_024776</t>
+  </si>
+  <si>
+    <t>NC_024772</t>
+  </si>
+  <si>
+    <t>NC_039071</t>
+  </si>
+  <si>
+    <t>NC_021204</t>
+  </si>
+  <si>
+    <t>NC_030126</t>
+  </si>
+  <si>
+    <t>NC_024119</t>
+  </si>
+  <si>
+    <t>NC_026320</t>
+  </si>
+  <si>
+    <t>NC_035474</t>
+  </si>
+  <si>
+    <t>NC_039070</t>
+  </si>
+  <si>
+    <t>NC_026318</t>
+  </si>
+  <si>
+    <t>NC_026317</t>
+  </si>
+  <si>
+    <t>NC_026319</t>
+  </si>
+  <si>
+    <t>NC_040336</t>
+  </si>
+  <si>
+    <t>NC_039069</t>
+  </si>
+  <si>
+    <t>NC_039068</t>
+  </si>
+  <si>
+    <t>NC_039067</t>
+  </si>
+  <si>
+    <t>NC_039066</t>
+  </si>
+  <si>
+    <t>NC_039065</t>
+  </si>
+  <si>
+    <t>NC_039064</t>
+  </si>
+  <si>
+    <t>NC_030119</t>
+  </si>
+  <si>
+    <t>NC_040359</t>
+  </si>
+  <si>
+    <t>NC_026252</t>
+  </si>
+  <si>
+    <t>NC_039063</t>
+  </si>
+  <si>
+    <t>NC_039062</t>
+  </si>
+  <si>
+    <t>NC_039061</t>
+  </si>
+  <si>
+    <t>NC_033275</t>
+  </si>
+  <si>
+    <t>NC_039060</t>
+  </si>
+  <si>
+    <t>NC_039059</t>
+  </si>
+  <si>
+    <t>NC_030129</t>
+  </si>
+  <si>
+    <t>NC_030124</t>
+  </si>
+  <si>
+    <t>NC_039058</t>
+  </si>
+  <si>
+    <t>NC_039057</t>
+  </si>
+  <si>
+    <t>NC_030125</t>
+  </si>
+  <si>
+    <t>NC_039056</t>
+  </si>
+  <si>
+    <t>NC_030128</t>
+  </si>
+  <si>
+    <t>NC_039055</t>
+  </si>
+  <si>
+    <t>NC_039054</t>
+  </si>
+  <si>
+    <t>NC_030123</t>
+  </si>
+  <si>
+    <t>Pig stool associated circular ssDNA virus GER2011</t>
+  </si>
+  <si>
+    <t>Turkey associated porprismacovirus 1</t>
+  </si>
+  <si>
+    <t>Sheep faeces associated smacovirus 3</t>
+  </si>
+  <si>
+    <t>Sheep faeces associated smacovirus 2</t>
+  </si>
+  <si>
+    <t>Sheep faeces associated smacovirus 1</t>
+  </si>
+  <si>
+    <t>Rat associated porprismacovirus 1</t>
+  </si>
+  <si>
+    <t>Porcine stool-associated circular virus 2</t>
+  </si>
+  <si>
+    <t>Porcine stool-associated circular virus</t>
+  </si>
+  <si>
+    <t>Porcine associated porprismacovirus 9</t>
+  </si>
+  <si>
+    <t>Porcine associated porprismacovirus 8</t>
+  </si>
+  <si>
+    <t>Porcine associated porprismacovirus 7</t>
+  </si>
+  <si>
+    <t>Porcine associated porprismacovirus 6</t>
+  </si>
+  <si>
+    <t>Porcine associated porprismacovirus 5</t>
+  </si>
+  <si>
+    <t>Porcine associated porprismacovirus 4</t>
+  </si>
+  <si>
+    <t>Porcine associated porprismacovirus 3</t>
+  </si>
+  <si>
+    <t>Porcine associated porprismacovirus 10</t>
+  </si>
+  <si>
+    <t>PoSCV Kor J481</t>
+  </si>
+  <si>
+    <t>Lemur associated porprismacovirus 1</t>
+  </si>
+  <si>
+    <t>Human feces smacovirus 3</t>
+  </si>
+  <si>
+    <t>Human feces smacovirus 2</t>
+  </si>
+  <si>
+    <t>Human associated porprismacovirus 2</t>
+  </si>
+  <si>
+    <t>Howler monkey associated porprismacovirus 1</t>
+  </si>
+  <si>
+    <t>Gorilla associated porprismacovirus 1</t>
+  </si>
+  <si>
+    <t>Fly associated circular virus 4</t>
+  </si>
+  <si>
+    <t>Chimpanzee associated porprismacovirus 2</t>
+  </si>
+  <si>
+    <t>Chimpanzee associated porprismacovirus 1</t>
+  </si>
+  <si>
+    <t>Camel associated porprismacovirus 4</t>
+  </si>
+  <si>
+    <t>Camel associated porprismacovirus 3</t>
+  </si>
+  <si>
+    <t>Camel associated porprismacovirus 2</t>
+  </si>
+  <si>
+    <t>Camel associated porprismacovirus 1</t>
+  </si>
+  <si>
+    <t>Bovine faeces associated smacovirus 2</t>
+  </si>
+  <si>
+    <t>Alces alces faeces associated smacovirus MP78</t>
+  </si>
+  <si>
+    <t>Human smacovirus 1</t>
+  </si>
+  <si>
+    <t>Human associated huchismacovirus 3</t>
+  </si>
+  <si>
+    <t>Human associated huchismacovirus 2</t>
+  </si>
+  <si>
+    <t>Human associated huchismacovirus 1</t>
+  </si>
+  <si>
+    <t>Chicken associated smacovirus</t>
+  </si>
+  <si>
+    <t>Chicken associated huchismacovirus 2</t>
+  </si>
+  <si>
+    <t>Chicken associated huchismacovirus 1</t>
+  </si>
+  <si>
+    <t>Bovine faeces associated smacovirus 6</t>
+  </si>
+  <si>
+    <t>Bovine faeces associated smacovirus 1</t>
+  </si>
+  <si>
+    <t>Camel associated drosmacovirus 2</t>
+  </si>
+  <si>
+    <t>Camel associated drosmacovirus 1</t>
+  </si>
+  <si>
+    <t>Bovine faeces associated smacovirus 5</t>
+  </si>
+  <si>
+    <t>Odonata-associated circular virus 5</t>
+  </si>
+  <si>
+    <t>Bovine faeces associated smacovirus 4</t>
+  </si>
+  <si>
+    <t>Odonata-associated circular virus 21</t>
+  </si>
+  <si>
+    <t>Circoviridae bovine stool/BK/KOR/2011</t>
+  </si>
+  <si>
+    <t>Bovine faeces associated smacovirus 3</t>
+  </si>
+  <si>
+    <t>Huchismacovirus</t>
+  </si>
+  <si>
+    <t>Drosmacovirus</t>
+  </si>
+  <si>
+    <t>Dragsmacovirus</t>
+  </si>
+  <si>
+    <t>Cosmacovirus</t>
+  </si>
+  <si>
+    <t>Bovismacovirus</t>
+  </si>
+  <si>
+    <t>PoSCV</t>
+  </si>
+  <si>
+    <t>PoSCV-10</t>
+  </si>
+  <si>
+    <t>PoSCV-3</t>
+  </si>
+  <si>
+    <t>PoSCV-4</t>
+  </si>
+  <si>
+    <t>PoSCV-5</t>
+  </si>
+  <si>
+    <t>PoSCV-6</t>
+  </si>
+  <si>
+    <t>PoSCV-7</t>
+  </si>
+  <si>
+    <t>PoSCV-8</t>
+  </si>
+  <si>
+    <t>PoSCV-9</t>
+  </si>
+  <si>
+    <t>GER2011</t>
+  </si>
+  <si>
+    <t>TaPSV</t>
+  </si>
+  <si>
+    <t>OvaPSV-3</t>
+  </si>
+  <si>
+    <t>OvaPSV-2</t>
+  </si>
+  <si>
+    <t>OvaPSV-1</t>
+  </si>
+  <si>
+    <t>RaaPSV-1</t>
+  </si>
+  <si>
+    <t>PoaPSV-2</t>
+  </si>
+  <si>
+    <t>PoaPSV</t>
+  </si>
+  <si>
+    <t>Camel-PoSCV-1</t>
+  </si>
+  <si>
+    <t>Camel-PoSCV-2</t>
+  </si>
+  <si>
+    <t>Camel-PoSCV-3</t>
+  </si>
+  <si>
+    <t>Camel-PoSCV-4</t>
+  </si>
+  <si>
+    <t>Chimp-PoSCV-1</t>
+  </si>
+  <si>
+    <t>Chimp-PoSCV-2</t>
+  </si>
+  <si>
+    <t>Human-PoSCV-2</t>
+  </si>
+  <si>
+    <t>Human-SCV-2</t>
+  </si>
+  <si>
+    <t>Lemur-PoSCV-1</t>
+  </si>
+  <si>
+    <t>HuchiSCV-1</t>
+  </si>
+  <si>
+    <t>HuchiSCV-2</t>
+  </si>
+  <si>
+    <t>HuchiSCV-3</t>
+  </si>
+  <si>
+    <t>Human-SCV-1</t>
+  </si>
+  <si>
+    <t>Alces-SCV</t>
+  </si>
+  <si>
+    <t>Bovine-SCV-2</t>
+  </si>
+  <si>
+    <t>Fly-SCV--1</t>
+  </si>
+  <si>
+    <t>Gorilla-SCV--1</t>
+  </si>
+  <si>
+    <t>Howler-SCV--1</t>
+  </si>
+  <si>
+    <t>Bovine-SCV-1</t>
+  </si>
+  <si>
+    <t>Bovine-SCV-6</t>
+  </si>
+  <si>
+    <t>Chicken-HuchiSCV-1</t>
+  </si>
+  <si>
+    <t>Chicken-HuchiSCV-2</t>
+  </si>
+  <si>
+    <t>Chicken-SCV</t>
+  </si>
+  <si>
+    <t>Camel-SCV-1</t>
+  </si>
+  <si>
+    <t>Camel-SCV-2</t>
+  </si>
+  <si>
+    <t>Bovine-SCV-4</t>
+  </si>
+  <si>
+    <t>Bovine-SCV-5</t>
+  </si>
+  <si>
+    <t>Odonata-CV-5</t>
+  </si>
+  <si>
+    <t>Bovine-SCV-3</t>
+  </si>
+  <si>
+    <t>Bovine-SCV</t>
+  </si>
+  <si>
+    <t>Odonata-CV-21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -735,6 +1188,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1158,7 +1618,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1177,6 +1637,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="330">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1845,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3163,22 +3624,22 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>156</v>
@@ -3189,22 +3650,22 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>156</v>
@@ -3215,27 +3676,1301 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B53" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H53" s="11" t="s">
+      <c r="C84" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H102" s="11" t="s">
         <v>156</v>
       </c>
     </row>

--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519E4BF-F845-8E43-BB0E-E70B2CD47D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2282D11-8F81-4B44-B738-35ED36BAB4AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="3740" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2308,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:H102"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F54" sqref="A54:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>

--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2282D11-8F81-4B44-B738-35ED36BAB4AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E43BAC-211F-E043-8E8B-E3634C60614F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7480" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -2308,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F54" sqref="A54:F54"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4988,4 +4989,16 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E00853-5188-0C4A-A997-D568990C9994}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CBE8DC-D931-3D4C-88DF-287B16635388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB86A70A-2564-D14C-88F3-DFCE027ABED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7480" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB86A70A-2564-D14C-88F3-DFCE027ABED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A766CFBA-EBFB-0B4F-A0D3-AA8E86831E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>PCV-1</t>
   </si>
@@ -171,25 +171,81 @@
   <si>
     <t>EaCMKv</t>
   </si>
+  <si>
+    <t>Genomoviridae</t>
+  </si>
+  <si>
+    <t>Gemycircular</t>
+  </si>
+  <si>
+    <t>Gemygorvirus</t>
+  </si>
+  <si>
+    <t>Gemykroznavirus</t>
+  </si>
+  <si>
+    <t>Gemytondvirus</t>
+  </si>
+  <si>
+    <t>Gemyduguivirus</t>
+  </si>
+  <si>
+    <t>JQ412057</t>
+  </si>
+  <si>
+    <t>JX185429</t>
+  </si>
+  <si>
+    <t>KF371631</t>
+  </si>
+  <si>
+    <t>KF371630</t>
+  </si>
+  <si>
+    <t>JX185428</t>
+  </si>
+  <si>
+    <t>Cassava associated gemycircularvirus 1</t>
+  </si>
+  <si>
+    <t>Dragonfly-associated circular virus 2</t>
+  </si>
+  <si>
+    <t>Faecal-associated gemycircularvirus 11</t>
+  </si>
+  <si>
+    <t>Faecal-associated gemycircularvirus 12</t>
+  </si>
+  <si>
+    <t>Dragonfly-associated circular virus 3</t>
+  </si>
+  <si>
+    <t>D-aGmygV</t>
+  </si>
+  <si>
+    <t>C-aGmycV</t>
+  </si>
+  <si>
+    <t>F-aGmytV</t>
+  </si>
+  <si>
+    <t>F-aGmykzV</t>
+  </si>
+  <si>
+    <t>D-aGmydgV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +305,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000090"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,344 +355,347 @@
   </borders>
   <cellStyleXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="330">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1283,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="A1:H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1326,28 +1409,28 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I2"/>
@@ -1369,28 +1452,28 @@
       <c r="Y2"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I3"/>
@@ -1412,28 +1495,28 @@
       <c r="Y3"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I4"/>
@@ -1455,28 +1538,28 @@
       <c r="Y4"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I5"/>
@@ -1541,28 +1624,28 @@
       <c r="Y6"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I7"/>
@@ -1584,28 +1667,28 @@
       <c r="Y7"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I8"/>
@@ -1627,14 +1710,30 @@
       <c r="Y8"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1654,14 +1753,30 @@
       <c r="Y9"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
+      <c r="A10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1681,14 +1796,30 @@
       <c r="Y10"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
+      <c r="A11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1708,14 +1839,30 @@
       <c r="Y11"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
+      <c r="A12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1735,14 +1882,30 @@
       <c r="Y12"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
+      <c r="A13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -15455,7 +15618,7 @@
     <sortCondition ref="E2:E48"/>
     <sortCondition ref="F2:F48"/>
   </sortState>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A766CFBA-EBFB-0B4F-A0D3-AA8E86831E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7308B3E4-EB72-D44B-81B4-1CD692B45CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25560" yWindow="10960" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>PCV-1</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Avon-Heatchote Estuary Associated Virus 13</t>
-  </si>
-  <si>
-    <t>CRESS</t>
   </si>
   <si>
     <t>Sus scrofa</t>
@@ -233,6 +230,18 @@
   </si>
   <si>
     <t>D-aGmydgV</t>
+  </si>
+  <si>
+    <t>JN857329</t>
+  </si>
+  <si>
+    <t>Circoviridae batCV-SC703</t>
+  </si>
+  <si>
+    <t>CRESS-4</t>
+  </si>
+  <si>
+    <t>batCV-Sc703</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1376,7 @@
   <dimension ref="A1:Y520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1393,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -1393,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -1402,10 +1411,10 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -1419,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>2</v>
@@ -1428,10 +1437,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -1453,28 +1462,28 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -1496,28 +1505,28 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -1539,28 +1548,28 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -1591,19 +1600,19 @@
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -1625,28 +1634,28 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1668,28 +1677,28 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -1711,28 +1720,28 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1754,28 +1763,28 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1797,28 +1806,28 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1840,28 +1849,28 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1883,28 +1892,28 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1925,14 +1934,30 @@
       <c r="Y13"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
+      <c r="A14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>

--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7308B3E4-EB72-D44B-81B4-1CD692B45CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B325BD-0165-8743-8F24-48D1EF93E0E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25560" yWindow="10960" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23280" yWindow="10960" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
   <si>
     <t>PCV-1</t>
   </si>
@@ -242,6 +242,18 @@
   </si>
   <si>
     <t>batCV-Sc703</t>
+  </si>
+  <si>
+    <t>MK059757</t>
+  </si>
+  <si>
+    <t>Human lung-associated brisavirus RC</t>
+  </si>
+  <si>
+    <t>Brisavirus</t>
+  </si>
+  <si>
+    <t>Hla-Brisavirus</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1388,7 @@
   <dimension ref="A1:Y520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D10" sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1977,14 +1989,30 @@
       <c r="Y14"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
+      <c r="A15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>

--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B325BD-0165-8743-8F24-48D1EF93E0E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA1A414-8E97-AA43-9421-7EEF67A5F9B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23280" yWindow="10960" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11320" yWindow="10860" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
   <si>
     <t>PCV-1</t>
   </si>
@@ -254,6 +254,102 @@
   </si>
   <si>
     <t>Hla-Brisavirus</t>
+  </si>
+  <si>
+    <t>NC_029117</t>
+  </si>
+  <si>
+    <t>NC_003825</t>
+  </si>
+  <si>
+    <t>NC_043533</t>
+  </si>
+  <si>
+    <t>NC_040792</t>
+  </si>
+  <si>
+    <t>NC_012664</t>
+  </si>
+  <si>
+    <t>NC_001412</t>
+  </si>
+  <si>
+    <t>NC_027714</t>
+  </si>
+  <si>
+    <t>NC_010417</t>
+  </si>
+  <si>
+    <t>Beet curly top Iran virus</t>
+  </si>
+  <si>
+    <t>BCTIV</t>
+  </si>
+  <si>
+    <t>Alfalfa leaf curl virus</t>
+  </si>
+  <si>
+    <t>Beet curly top virus</t>
+  </si>
+  <si>
+    <t>Eragrostis curvula streak virus</t>
+  </si>
+  <si>
+    <t>Rice latent virus 1</t>
+  </si>
+  <si>
+    <t>Prunus latent virus</t>
+  </si>
+  <si>
+    <t>Tomato pseudo-curly top virus</t>
+  </si>
+  <si>
+    <t>Turnip leaf roll virus</t>
+  </si>
+  <si>
+    <t>TLFV</t>
+  </si>
+  <si>
+    <t>TpSTV</t>
+  </si>
+  <si>
+    <t>PrunusLV</t>
+  </si>
+  <si>
+    <t>RiceLV</t>
+  </si>
+  <si>
+    <t>ECSV</t>
+  </si>
+  <si>
+    <t>BCTV</t>
+  </si>
+  <si>
+    <t>ALCV</t>
+  </si>
+  <si>
+    <t>Capulavirus</t>
+  </si>
+  <si>
+    <t>Becurtovirus</t>
+  </si>
+  <si>
+    <t>Curtovirus</t>
+  </si>
+  <si>
+    <t>Eragrovirus</t>
+  </si>
+  <si>
+    <t>Mastrevirus</t>
+  </si>
+  <si>
+    <t>Grablovirus</t>
+  </si>
+  <si>
+    <t>Topocuvirus</t>
+  </si>
+  <si>
+    <t>Turncurtovirus</t>
   </si>
 </sst>
 </file>
@@ -1385,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y520"/>
+  <dimension ref="A1:Y519"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:H15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D17" sqref="A1:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1688,28 +1784,28 @@
       <c r="Y7"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="A8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I8"/>
@@ -1732,19 +1828,19 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>27</v>
@@ -1775,19 +1871,19 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>27</v>
@@ -1818,19 +1914,19 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>27</v>
@@ -1861,19 +1957,19 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>27</v>
@@ -1903,28 +1999,28 @@
       <c r="Y12"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="A13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I13"/>
@@ -1946,28 +2042,28 @@
       <c r="Y13"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="A14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I14"/>
@@ -1989,23 +2085,23 @@
       <c r="Y14"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>72</v>
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>17</v>
@@ -2032,14 +2128,30 @@
       <c r="Y15"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
+      <c r="A16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -2059,14 +2171,30 @@
       <c r="Y16"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
+      <c r="A17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -2086,14 +2214,30 @@
       <c r="Y17"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
+      <c r="A18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2113,14 +2257,30 @@
       <c r="Y18"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
+      <c r="A19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2140,14 +2300,30 @@
       <c r="Y19"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
+      <c r="A20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -2167,14 +2343,30 @@
       <c r="Y20"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
+      <c r="A21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2194,14 +2386,30 @@
       <c r="Y21"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
+      <c r="A22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2221,14 +2429,30 @@
       <c r="Y22"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
+      <c r="A23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -15639,37 +15863,10 @@
       <c r="X519"/>
       <c r="Y519"/>
     </row>
-    <row r="520" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A520"/>
-      <c r="B520"/>
-      <c r="C520"/>
-      <c r="D520"/>
-      <c r="E520"/>
-      <c r="F520"/>
-      <c r="G520"/>
-      <c r="H520"/>
-      <c r="I520"/>
-      <c r="J520"/>
-      <c r="K520"/>
-      <c r="L520"/>
-      <c r="M520"/>
-      <c r="N520"/>
-      <c r="O520"/>
-      <c r="P520"/>
-      <c r="Q520"/>
-      <c r="R520"/>
-      <c r="S520"/>
-      <c r="T520"/>
-      <c r="U520"/>
-      <c r="V520"/>
-      <c r="W520"/>
-      <c r="X520"/>
-      <c r="Y520"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
-    <sortCondition ref="E2:E48"/>
-    <sortCondition ref="F2:F48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
+    <sortCondition ref="E2:E47"/>
+    <sortCondition ref="F2:F47"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA1A414-8E97-AA43-9421-7EEF67A5F9B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08566977-E52A-3246-8AC5-42C791F5783A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11320" yWindow="10860" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4360" yWindow="7220" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,9 +172,6 @@
     <t>Genomoviridae</t>
   </si>
   <si>
-    <t>Gemycircular</t>
-  </si>
-  <si>
     <t>Gemygorvirus</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
   </si>
   <si>
     <t>Circoviridae batCV-SC703</t>
-  </si>
-  <si>
-    <t>CRESS-4</t>
   </si>
   <si>
     <t>batCV-Sc703</t>
@@ -350,6 +344,12 @@
   </si>
   <si>
     <t>Turncurtovirus</t>
+  </si>
+  <si>
+    <t>CRESS-3</t>
+  </si>
+  <si>
+    <t>Gemycircularvirus</t>
   </si>
 </sst>
 </file>
@@ -1483,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D17" sqref="A1:H23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1785,19 +1785,19 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>27</v>
@@ -1828,19 +1828,19 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>27</v>
@@ -1871,19 +1871,19 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>27</v>
@@ -1914,19 +1914,19 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>27</v>
@@ -1957,19 +1957,19 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>27</v>
@@ -2000,19 +2000,19 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>27</v>
@@ -2043,22 +2043,22 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>17</v>
@@ -2129,19 +2129,19 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>27</v>
@@ -2172,19 +2172,19 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>27</v>
@@ -2215,19 +2215,19 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>27</v>
@@ -2258,19 +2258,19 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>27</v>
@@ -2301,19 +2301,19 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>27</v>
@@ -2344,19 +2344,19 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>27</v>
@@ -2387,19 +2387,19 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>27</v>
@@ -2430,19 +2430,19 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>27</v>

--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08566977-E52A-3246-8AC5-42C791F5783A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE792A4-C264-0049-BA03-D356E64B7649}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4360" yWindow="7220" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="135">
   <si>
     <t>PCV-1</t>
   </si>
@@ -351,12 +351,96 @@
   <si>
     <t>Gemycircularvirus</t>
   </si>
+  <si>
+    <t>Nanovirus</t>
+  </si>
+  <si>
+    <t>Babuvirus</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>NC_003813</t>
+  </si>
+  <si>
+    <t>NC_003479</t>
+  </si>
+  <si>
+    <t>NC_043432</t>
+  </si>
+  <si>
+    <t>NC_033746</t>
+  </si>
+  <si>
+    <t>SCSV</t>
+  </si>
+  <si>
+    <t>CsDNAv</t>
+  </si>
+  <si>
+    <t>GaBacV1</t>
+  </si>
+  <si>
+    <t>Subterranean clover stunt virus</t>
+  </si>
+  <si>
+    <t>Banana bunchy top virus</t>
+  </si>
+  <si>
+    <t>BBTV</t>
+  </si>
+  <si>
+    <t>Chaetoceros setoense DNA virus</t>
+  </si>
+  <si>
+    <t>Amphibola crenata associated bacilladnavirus 1</t>
+  </si>
+  <si>
+    <t>Mulparvirales</t>
+  </si>
+  <si>
+    <t>Nanoviridae</t>
+  </si>
+  <si>
+    <t>Baphyvirales</t>
+  </si>
+  <si>
+    <t>Circlivirales</t>
+  </si>
+  <si>
+    <t>Cremevirales</t>
+  </si>
+  <si>
+    <t>Recrevirales</t>
+  </si>
+  <si>
+    <t>Geplafuvirales</t>
+  </si>
+  <si>
+    <t>Bacilladnaviridae</t>
+  </si>
+  <si>
+    <t>Diatodnavirus</t>
+  </si>
+  <si>
+    <t>Protobacilladnavirus</t>
+  </si>
+  <si>
+    <t>superorder</t>
+  </si>
+  <si>
+    <t>Arfiviricetes</t>
+  </si>
+  <si>
+    <t>Repensiviricetes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -411,6 +495,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -439,13 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FFEBEBEB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <fgColor theme="0" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,7 +894,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -813,6 +905,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="330">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1148,6 +1241,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEBEBEB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1481,25 +1579,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y519"/>
+  <dimension ref="A1:AA519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="A1:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="63" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="18.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="38.1640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="53.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="18.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="38.1640625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1510,48 +1610,58 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
+        <v>27</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -1567,34 +1677,40 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -1610,34 +1726,40 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
+        <v>125</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -1653,34 +1775,40 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -1696,34 +1824,40 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I6"/>
-      <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -1739,34 +1873,40 @@
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -1782,34 +1922,40 @@
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="Z7"/>
+      <c r="AA7"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -1825,34 +1971,40 @@
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="Z8"/>
+      <c r="AA8"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="J9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -1868,34 +2020,40 @@
       <c r="W9"/>
       <c r="X9"/>
       <c r="Y9"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="Z9"/>
+      <c r="AA9"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I10"/>
-      <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
@@ -1911,34 +2069,40 @@
       <c r="W10"/>
       <c r="X10"/>
       <c r="Y10"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="Z10"/>
+      <c r="AA10"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="J11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I11"/>
-      <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
@@ -1954,34 +2118,40 @@
       <c r="W11"/>
       <c r="X11"/>
       <c r="Y11"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="Z11"/>
+      <c r="AA11"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="J12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I12"/>
-      <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
@@ -1997,34 +2167,40 @@
       <c r="W12"/>
       <c r="X12"/>
       <c r="Y12"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>26</v>
+      <c r="Z12"/>
+      <c r="AA12"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I13"/>
-      <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
@@ -2040,34 +2216,40 @@
       <c r="W13"/>
       <c r="X13"/>
       <c r="Y13"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z13"/>
+      <c r="AA13"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I14"/>
-      <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
@@ -2083,34 +2265,40 @@
       <c r="W14"/>
       <c r="X14"/>
       <c r="Y14"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="Z14"/>
+      <c r="AA14"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I15"/>
-      <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
@@ -2126,34 +2314,40 @@
       <c r="W15"/>
       <c r="X15"/>
       <c r="Y15"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="Z15"/>
+      <c r="AA15"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I16"/>
-      <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
@@ -2169,34 +2363,40 @@
       <c r="W16"/>
       <c r="X16"/>
       <c r="Y16"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="Z16"/>
+      <c r="AA16"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I17"/>
-      <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
@@ -2212,34 +2412,40 @@
       <c r="W17"/>
       <c r="X17"/>
       <c r="Y17"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="Z17"/>
+      <c r="AA17"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I18"/>
-      <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
@@ -2255,34 +2461,40 @@
       <c r="W18"/>
       <c r="X18"/>
       <c r="Y18"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="Z18"/>
+      <c r="AA18"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I19"/>
-      <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
@@ -2298,34 +2510,40 @@
       <c r="W19"/>
       <c r="X19"/>
       <c r="Y19"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="Z19"/>
+      <c r="AA19"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="J20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I20"/>
-      <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
@@ -2341,34 +2559,40 @@
       <c r="W20"/>
       <c r="X20"/>
       <c r="Y20"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="Z20"/>
+      <c r="AA20"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="J21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I21"/>
-      <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
@@ -2384,34 +2608,40 @@
       <c r="W21"/>
       <c r="X21"/>
       <c r="Y21"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="Z21"/>
+      <c r="AA21"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="J22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I22"/>
-      <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
@@ -2427,34 +2657,40 @@
       <c r="W22"/>
       <c r="X22"/>
       <c r="Y22"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="Z22"/>
+      <c r="AA22"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="I23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="J23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I23"/>
-      <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
@@ -2470,18 +2706,40 @@
       <c r="W23"/>
       <c r="X23"/>
       <c r="Y23"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
@@ -2497,18 +2755,40 @@
       <c r="W24"/>
       <c r="X24"/>
       <c r="Y24"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
@@ -2524,18 +2804,40 @@
       <c r="W25"/>
       <c r="X25"/>
       <c r="Y25"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
@@ -2551,18 +2853,40 @@
       <c r="W26"/>
       <c r="X26"/>
       <c r="Y26"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
@@ -2578,8 +2902,10 @@
       <c r="W27"/>
       <c r="X27"/>
       <c r="Y27"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z27"/>
+      <c r="AA27"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -2605,8 +2931,10 @@
       <c r="W28"/>
       <c r="X28"/>
       <c r="Y28"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z28"/>
+      <c r="AA28"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -2632,8 +2960,10 @@
       <c r="W29"/>
       <c r="X29"/>
       <c r="Y29"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z29"/>
+      <c r="AA29"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -2659,8 +2989,10 @@
       <c r="W30"/>
       <c r="X30"/>
       <c r="Y30"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z30"/>
+      <c r="AA30"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -2686,8 +3018,10 @@
       <c r="W31"/>
       <c r="X31"/>
       <c r="Y31"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z31"/>
+      <c r="AA31"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -2713,8 +3047,10 @@
       <c r="W32"/>
       <c r="X32"/>
       <c r="Y32"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z32"/>
+      <c r="AA32"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -2740,8 +3076,10 @@
       <c r="W33"/>
       <c r="X33"/>
       <c r="Y33"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z33"/>
+      <c r="AA33"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -2767,8 +3105,10 @@
       <c r="W34"/>
       <c r="X34"/>
       <c r="Y34"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z34"/>
+      <c r="AA34"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -2794,8 +3134,10 @@
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z35"/>
+      <c r="AA35"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -2821,8 +3163,10 @@
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z36"/>
+      <c r="AA36"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -2848,8 +3192,10 @@
       <c r="W37"/>
       <c r="X37"/>
       <c r="Y37"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z37"/>
+      <c r="AA37"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -2875,8 +3221,10 @@
       <c r="W38"/>
       <c r="X38"/>
       <c r="Y38"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z38"/>
+      <c r="AA38"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -2902,8 +3250,10 @@
       <c r="W39"/>
       <c r="X39"/>
       <c r="Y39"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z39"/>
+      <c r="AA39"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -2929,8 +3279,10 @@
       <c r="W40"/>
       <c r="X40"/>
       <c r="Y40"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z40"/>
+      <c r="AA40"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -2956,8 +3308,10 @@
       <c r="W41"/>
       <c r="X41"/>
       <c r="Y41"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z41"/>
+      <c r="AA41"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -2983,8 +3337,10 @@
       <c r="W42"/>
       <c r="X42"/>
       <c r="Y42"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z42"/>
+      <c r="AA42"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -3010,8 +3366,10 @@
       <c r="W43"/>
       <c r="X43"/>
       <c r="Y43"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z43"/>
+      <c r="AA43"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -3037,8 +3395,10 @@
       <c r="W44"/>
       <c r="X44"/>
       <c r="Y44"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z44"/>
+      <c r="AA44"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -3064,8 +3424,10 @@
       <c r="W45"/>
       <c r="X45"/>
       <c r="Y45"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z45"/>
+      <c r="AA45"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -3091,8 +3453,10 @@
       <c r="W46"/>
       <c r="X46"/>
       <c r="Y46"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z46"/>
+      <c r="AA46"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -3118,8 +3482,10 @@
       <c r="W47"/>
       <c r="X47"/>
       <c r="Y47"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z47"/>
+      <c r="AA47"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -3145,8 +3511,10 @@
       <c r="W48"/>
       <c r="X48"/>
       <c r="Y48"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z48"/>
+      <c r="AA48"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -3172,8 +3540,10 @@
       <c r="W49"/>
       <c r="X49"/>
       <c r="Y49"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z49"/>
+      <c r="AA49"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -3199,8 +3569,10 @@
       <c r="W50"/>
       <c r="X50"/>
       <c r="Y50"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z50"/>
+      <c r="AA50"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -3226,8 +3598,10 @@
       <c r="W51"/>
       <c r="X51"/>
       <c r="Y51"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z51"/>
+      <c r="AA51"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -3253,8 +3627,10 @@
       <c r="W52"/>
       <c r="X52"/>
       <c r="Y52"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z52"/>
+      <c r="AA52"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -3280,8 +3656,10 @@
       <c r="W53"/>
       <c r="X53"/>
       <c r="Y53"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z53"/>
+      <c r="AA53"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -3307,8 +3685,10 @@
       <c r="W54"/>
       <c r="X54"/>
       <c r="Y54"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z54"/>
+      <c r="AA54"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -3334,8 +3714,10 @@
       <c r="W55"/>
       <c r="X55"/>
       <c r="Y55"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z55"/>
+      <c r="AA55"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -3361,8 +3743,10 @@
       <c r="W56"/>
       <c r="X56"/>
       <c r="Y56"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z56"/>
+      <c r="AA56"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -3388,8 +3772,10 @@
       <c r="W57"/>
       <c r="X57"/>
       <c r="Y57"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z57"/>
+      <c r="AA57"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -3415,8 +3801,10 @@
       <c r="W58"/>
       <c r="X58"/>
       <c r="Y58"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z58"/>
+      <c r="AA58"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -3442,8 +3830,10 @@
       <c r="W59"/>
       <c r="X59"/>
       <c r="Y59"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z59"/>
+      <c r="AA59"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -3469,8 +3859,10 @@
       <c r="W60"/>
       <c r="X60"/>
       <c r="Y60"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z60"/>
+      <c r="AA60"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -3496,8 +3888,10 @@
       <c r="W61"/>
       <c r="X61"/>
       <c r="Y61"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z61"/>
+      <c r="AA61"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -3523,8 +3917,10 @@
       <c r="W62"/>
       <c r="X62"/>
       <c r="Y62"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z62"/>
+      <c r="AA62"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -3550,8 +3946,10 @@
       <c r="W63"/>
       <c r="X63"/>
       <c r="Y63"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z63"/>
+      <c r="AA63"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -3577,8 +3975,10 @@
       <c r="W64"/>
       <c r="X64"/>
       <c r="Y64"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z64"/>
+      <c r="AA64"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -3604,8 +4004,10 @@
       <c r="W65"/>
       <c r="X65"/>
       <c r="Y65"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z65"/>
+      <c r="AA65"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -3631,8 +4033,10 @@
       <c r="W66"/>
       <c r="X66"/>
       <c r="Y66"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z66"/>
+      <c r="AA66"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -3658,8 +4062,10 @@
       <c r="W67"/>
       <c r="X67"/>
       <c r="Y67"/>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z67"/>
+      <c r="AA67"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -3685,8 +4091,10 @@
       <c r="W68"/>
       <c r="X68"/>
       <c r="Y68"/>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z68"/>
+      <c r="AA68"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -3712,8 +4120,10 @@
       <c r="W69"/>
       <c r="X69"/>
       <c r="Y69"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z69"/>
+      <c r="AA69"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -3739,8 +4149,10 @@
       <c r="W70"/>
       <c r="X70"/>
       <c r="Y70"/>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z70"/>
+      <c r="AA70"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -3766,8 +4178,10 @@
       <c r="W71"/>
       <c r="X71"/>
       <c r="Y71"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z71"/>
+      <c r="AA71"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -3793,8 +4207,10 @@
       <c r="W72"/>
       <c r="X72"/>
       <c r="Y72"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z72"/>
+      <c r="AA72"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -3820,8 +4236,10 @@
       <c r="W73"/>
       <c r="X73"/>
       <c r="Y73"/>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z73"/>
+      <c r="AA73"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -3847,8 +4265,10 @@
       <c r="W74"/>
       <c r="X74"/>
       <c r="Y74"/>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z74"/>
+      <c r="AA74"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -3874,8 +4294,10 @@
       <c r="W75"/>
       <c r="X75"/>
       <c r="Y75"/>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z75"/>
+      <c r="AA75"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -3901,8 +4323,10 @@
       <c r="W76"/>
       <c r="X76"/>
       <c r="Y76"/>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z76"/>
+      <c r="AA76"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -3928,8 +4352,10 @@
       <c r="W77"/>
       <c r="X77"/>
       <c r="Y77"/>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z77"/>
+      <c r="AA77"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -3955,8 +4381,10 @@
       <c r="W78"/>
       <c r="X78"/>
       <c r="Y78"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z78"/>
+      <c r="AA78"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -3982,8 +4410,10 @@
       <c r="W79"/>
       <c r="X79"/>
       <c r="Y79"/>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z79"/>
+      <c r="AA79"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -4009,8 +4439,10 @@
       <c r="W80"/>
       <c r="X80"/>
       <c r="Y80"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z80"/>
+      <c r="AA80"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -4036,8 +4468,10 @@
       <c r="W81"/>
       <c r="X81"/>
       <c r="Y81"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z81"/>
+      <c r="AA81"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -4063,8 +4497,10 @@
       <c r="W82"/>
       <c r="X82"/>
       <c r="Y82"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z82"/>
+      <c r="AA82"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -4090,8 +4526,10 @@
       <c r="W83"/>
       <c r="X83"/>
       <c r="Y83"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z83"/>
+      <c r="AA83"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -4117,8 +4555,10 @@
       <c r="W84"/>
       <c r="X84"/>
       <c r="Y84"/>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z84"/>
+      <c r="AA84"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -4144,8 +4584,10 @@
       <c r="W85"/>
       <c r="X85"/>
       <c r="Y85"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z85"/>
+      <c r="AA85"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -4171,8 +4613,10 @@
       <c r="W86"/>
       <c r="X86"/>
       <c r="Y86"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z86"/>
+      <c r="AA86"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -4198,8 +4642,10 @@
       <c r="W87"/>
       <c r="X87"/>
       <c r="Y87"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z87"/>
+      <c r="AA87"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -4225,8 +4671,10 @@
       <c r="W88"/>
       <c r="X88"/>
       <c r="Y88"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z88"/>
+      <c r="AA88"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -4252,8 +4700,10 @@
       <c r="W89"/>
       <c r="X89"/>
       <c r="Y89"/>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z89"/>
+      <c r="AA89"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -4279,8 +4729,10 @@
       <c r="W90"/>
       <c r="X90"/>
       <c r="Y90"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z90"/>
+      <c r="AA90"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -4306,8 +4758,10 @@
       <c r="W91"/>
       <c r="X91"/>
       <c r="Y91"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z91"/>
+      <c r="AA91"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -4333,8 +4787,10 @@
       <c r="W92"/>
       <c r="X92"/>
       <c r="Y92"/>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z92"/>
+      <c r="AA92"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -4360,8 +4816,10 @@
       <c r="W93"/>
       <c r="X93"/>
       <c r="Y93"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z93"/>
+      <c r="AA93"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -4387,8 +4845,10 @@
       <c r="W94"/>
       <c r="X94"/>
       <c r="Y94"/>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z94"/>
+      <c r="AA94"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -4414,8 +4874,10 @@
       <c r="W95"/>
       <c r="X95"/>
       <c r="Y95"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z95"/>
+      <c r="AA95"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -4441,8 +4903,10 @@
       <c r="W96"/>
       <c r="X96"/>
       <c r="Y96"/>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z96"/>
+      <c r="AA96"/>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -4468,8 +4932,10 @@
       <c r="W97"/>
       <c r="X97"/>
       <c r="Y97"/>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z97"/>
+      <c r="AA97"/>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -4495,8 +4961,10 @@
       <c r="W98"/>
       <c r="X98"/>
       <c r="Y98"/>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z98"/>
+      <c r="AA98"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -4522,8 +4990,10 @@
       <c r="W99"/>
       <c r="X99"/>
       <c r="Y99"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z99"/>
+      <c r="AA99"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -4549,8 +5019,10 @@
       <c r="W100"/>
       <c r="X100"/>
       <c r="Y100"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z100"/>
+      <c r="AA100"/>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -4576,8 +5048,10 @@
       <c r="W101"/>
       <c r="X101"/>
       <c r="Y101"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z101"/>
+      <c r="AA101"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -4603,8 +5077,10 @@
       <c r="W102"/>
       <c r="X102"/>
       <c r="Y102"/>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z102"/>
+      <c r="AA102"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -4630,8 +5106,10 @@
       <c r="W103"/>
       <c r="X103"/>
       <c r="Y103"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z103"/>
+      <c r="AA103"/>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -4657,8 +5135,10 @@
       <c r="W104"/>
       <c r="X104"/>
       <c r="Y104"/>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z104"/>
+      <c r="AA104"/>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -4684,8 +5164,10 @@
       <c r="W105"/>
       <c r="X105"/>
       <c r="Y105"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z105"/>
+      <c r="AA105"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -4711,8 +5193,10 @@
       <c r="W106"/>
       <c r="X106"/>
       <c r="Y106"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z106"/>
+      <c r="AA106"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -4738,8 +5222,10 @@
       <c r="W107"/>
       <c r="X107"/>
       <c r="Y107"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z107"/>
+      <c r="AA107"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -4765,8 +5251,10 @@
       <c r="W108"/>
       <c r="X108"/>
       <c r="Y108"/>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z108"/>
+      <c r="AA108"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -4792,8 +5280,10 @@
       <c r="W109"/>
       <c r="X109"/>
       <c r="Y109"/>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z109"/>
+      <c r="AA109"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -4819,8 +5309,10 @@
       <c r="W110"/>
       <c r="X110"/>
       <c r="Y110"/>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z110"/>
+      <c r="AA110"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -4846,8 +5338,10 @@
       <c r="W111"/>
       <c r="X111"/>
       <c r="Y111"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z111"/>
+      <c r="AA111"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -4873,8 +5367,10 @@
       <c r="W112"/>
       <c r="X112"/>
       <c r="Y112"/>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z112"/>
+      <c r="AA112"/>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -4900,8 +5396,10 @@
       <c r="W113"/>
       <c r="X113"/>
       <c r="Y113"/>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z113"/>
+      <c r="AA113"/>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -4927,8 +5425,10 @@
       <c r="W114"/>
       <c r="X114"/>
       <c r="Y114"/>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z114"/>
+      <c r="AA114"/>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -4954,8 +5454,10 @@
       <c r="W115"/>
       <c r="X115"/>
       <c r="Y115"/>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z115"/>
+      <c r="AA115"/>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -4981,8 +5483,10 @@
       <c r="W116"/>
       <c r="X116"/>
       <c r="Y116"/>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z116"/>
+      <c r="AA116"/>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -5008,8 +5512,10 @@
       <c r="W117"/>
       <c r="X117"/>
       <c r="Y117"/>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z117"/>
+      <c r="AA117"/>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -5035,8 +5541,10 @@
       <c r="W118"/>
       <c r="X118"/>
       <c r="Y118"/>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z118"/>
+      <c r="AA118"/>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -5062,8 +5570,10 @@
       <c r="W119"/>
       <c r="X119"/>
       <c r="Y119"/>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z119"/>
+      <c r="AA119"/>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -5089,8 +5599,10 @@
       <c r="W120"/>
       <c r="X120"/>
       <c r="Y120"/>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z120"/>
+      <c r="AA120"/>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -5116,8 +5628,10 @@
       <c r="W121"/>
       <c r="X121"/>
       <c r="Y121"/>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z121"/>
+      <c r="AA121"/>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -5143,8 +5657,10 @@
       <c r="W122"/>
       <c r="X122"/>
       <c r="Y122"/>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z122"/>
+      <c r="AA122"/>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -5170,8 +5686,10 @@
       <c r="W123"/>
       <c r="X123"/>
       <c r="Y123"/>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z123"/>
+      <c r="AA123"/>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -5197,8 +5715,10 @@
       <c r="W124"/>
       <c r="X124"/>
       <c r="Y124"/>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z124"/>
+      <c r="AA124"/>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -5224,8 +5744,10 @@
       <c r="W125"/>
       <c r="X125"/>
       <c r="Y125"/>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z125"/>
+      <c r="AA125"/>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -5251,8 +5773,10 @@
       <c r="W126"/>
       <c r="X126"/>
       <c r="Y126"/>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z126"/>
+      <c r="AA126"/>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -5278,8 +5802,10 @@
       <c r="W127"/>
       <c r="X127"/>
       <c r="Y127"/>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z127"/>
+      <c r="AA127"/>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -5305,8 +5831,10 @@
       <c r="W128"/>
       <c r="X128"/>
       <c r="Y128"/>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z128"/>
+      <c r="AA128"/>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -5332,8 +5860,10 @@
       <c r="W129"/>
       <c r="X129"/>
       <c r="Y129"/>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z129"/>
+      <c r="AA129"/>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -5359,8 +5889,10 @@
       <c r="W130"/>
       <c r="X130"/>
       <c r="Y130"/>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z130"/>
+      <c r="AA130"/>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -5386,8 +5918,10 @@
       <c r="W131"/>
       <c r="X131"/>
       <c r="Y131"/>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z131"/>
+      <c r="AA131"/>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -5413,8 +5947,10 @@
       <c r="W132"/>
       <c r="X132"/>
       <c r="Y132"/>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z132"/>
+      <c r="AA132"/>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -5440,8 +5976,10 @@
       <c r="W133"/>
       <c r="X133"/>
       <c r="Y133"/>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z133"/>
+      <c r="AA133"/>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -5467,8 +6005,10 @@
       <c r="W134"/>
       <c r="X134"/>
       <c r="Y134"/>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z134"/>
+      <c r="AA134"/>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -5494,8 +6034,10 @@
       <c r="W135"/>
       <c r="X135"/>
       <c r="Y135"/>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z135"/>
+      <c r="AA135"/>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -5521,8 +6063,10 @@
       <c r="W136"/>
       <c r="X136"/>
       <c r="Y136"/>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z136"/>
+      <c r="AA136"/>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -5548,8 +6092,10 @@
       <c r="W137"/>
       <c r="X137"/>
       <c r="Y137"/>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z137"/>
+      <c r="AA137"/>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -5575,8 +6121,10 @@
       <c r="W138"/>
       <c r="X138"/>
       <c r="Y138"/>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z138"/>
+      <c r="AA138"/>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -5602,8 +6150,10 @@
       <c r="W139"/>
       <c r="X139"/>
       <c r="Y139"/>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z139"/>
+      <c r="AA139"/>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -5629,8 +6179,10 @@
       <c r="W140"/>
       <c r="X140"/>
       <c r="Y140"/>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z140"/>
+      <c r="AA140"/>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -5656,8 +6208,10 @@
       <c r="W141"/>
       <c r="X141"/>
       <c r="Y141"/>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z141"/>
+      <c r="AA141"/>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -5683,8 +6237,10 @@
       <c r="W142"/>
       <c r="X142"/>
       <c r="Y142"/>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z142"/>
+      <c r="AA142"/>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -5710,8 +6266,10 @@
       <c r="W143"/>
       <c r="X143"/>
       <c r="Y143"/>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z143"/>
+      <c r="AA143"/>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -5737,8 +6295,10 @@
       <c r="W144"/>
       <c r="X144"/>
       <c r="Y144"/>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z144"/>
+      <c r="AA144"/>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -5764,8 +6324,10 @@
       <c r="W145"/>
       <c r="X145"/>
       <c r="Y145"/>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z145"/>
+      <c r="AA145"/>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
@@ -5791,8 +6353,10 @@
       <c r="W146"/>
       <c r="X146"/>
       <c r="Y146"/>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z146"/>
+      <c r="AA146"/>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
@@ -5818,8 +6382,10 @@
       <c r="W147"/>
       <c r="X147"/>
       <c r="Y147"/>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z147"/>
+      <c r="AA147"/>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
@@ -5845,8 +6411,10 @@
       <c r="W148"/>
       <c r="X148"/>
       <c r="Y148"/>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z148"/>
+      <c r="AA148"/>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -5872,8 +6440,10 @@
       <c r="W149"/>
       <c r="X149"/>
       <c r="Y149"/>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z149"/>
+      <c r="AA149"/>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
@@ -5899,8 +6469,10 @@
       <c r="W150"/>
       <c r="X150"/>
       <c r="Y150"/>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z150"/>
+      <c r="AA150"/>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
@@ -5926,8 +6498,10 @@
       <c r="W151"/>
       <c r="X151"/>
       <c r="Y151"/>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z151"/>
+      <c r="AA151"/>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
@@ -5953,8 +6527,10 @@
       <c r="W152"/>
       <c r="X152"/>
       <c r="Y152"/>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z152"/>
+      <c r="AA152"/>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
@@ -5980,8 +6556,10 @@
       <c r="W153"/>
       <c r="X153"/>
       <c r="Y153"/>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z153"/>
+      <c r="AA153"/>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
@@ -6007,8 +6585,10 @@
       <c r="W154"/>
       <c r="X154"/>
       <c r="Y154"/>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z154"/>
+      <c r="AA154"/>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
@@ -6034,8 +6614,10 @@
       <c r="W155"/>
       <c r="X155"/>
       <c r="Y155"/>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z155"/>
+      <c r="AA155"/>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
@@ -6061,8 +6643,10 @@
       <c r="W156"/>
       <c r="X156"/>
       <c r="Y156"/>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z156"/>
+      <c r="AA156"/>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
@@ -6088,8 +6672,10 @@
       <c r="W157"/>
       <c r="X157"/>
       <c r="Y157"/>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z157"/>
+      <c r="AA157"/>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
@@ -6115,8 +6701,10 @@
       <c r="W158"/>
       <c r="X158"/>
       <c r="Y158"/>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z158"/>
+      <c r="AA158"/>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
@@ -6142,8 +6730,10 @@
       <c r="W159"/>
       <c r="X159"/>
       <c r="Y159"/>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z159"/>
+      <c r="AA159"/>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
@@ -6169,8 +6759,10 @@
       <c r="W160"/>
       <c r="X160"/>
       <c r="Y160"/>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z160"/>
+      <c r="AA160"/>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
@@ -6196,8 +6788,10 @@
       <c r="W161"/>
       <c r="X161"/>
       <c r="Y161"/>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z161"/>
+      <c r="AA161"/>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
@@ -6223,8 +6817,10 @@
       <c r="W162"/>
       <c r="X162"/>
       <c r="Y162"/>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z162"/>
+      <c r="AA162"/>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
@@ -6250,8 +6846,10 @@
       <c r="W163"/>
       <c r="X163"/>
       <c r="Y163"/>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z163"/>
+      <c r="AA163"/>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
@@ -6277,8 +6875,10 @@
       <c r="W164"/>
       <c r="X164"/>
       <c r="Y164"/>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z164"/>
+      <c r="AA164"/>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
@@ -6304,8 +6904,10 @@
       <c r="W165"/>
       <c r="X165"/>
       <c r="Y165"/>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z165"/>
+      <c r="AA165"/>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
@@ -6331,8 +6933,10 @@
       <c r="W166"/>
       <c r="X166"/>
       <c r="Y166"/>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z166"/>
+      <c r="AA166"/>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
@@ -6358,8 +6962,10 @@
       <c r="W167"/>
       <c r="X167"/>
       <c r="Y167"/>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z167"/>
+      <c r="AA167"/>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
@@ -6385,8 +6991,10 @@
       <c r="W168"/>
       <c r="X168"/>
       <c r="Y168"/>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z168"/>
+      <c r="AA168"/>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
@@ -6412,8 +7020,10 @@
       <c r="W169"/>
       <c r="X169"/>
       <c r="Y169"/>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z169"/>
+      <c r="AA169"/>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
@@ -6439,8 +7049,10 @@
       <c r="W170"/>
       <c r="X170"/>
       <c r="Y170"/>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z170"/>
+      <c r="AA170"/>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
@@ -6466,8 +7078,10 @@
       <c r="W171"/>
       <c r="X171"/>
       <c r="Y171"/>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z171"/>
+      <c r="AA171"/>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
@@ -6493,8 +7107,10 @@
       <c r="W172"/>
       <c r="X172"/>
       <c r="Y172"/>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z172"/>
+      <c r="AA172"/>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
@@ -6520,8 +7136,10 @@
       <c r="W173"/>
       <c r="X173"/>
       <c r="Y173"/>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z173"/>
+      <c r="AA173"/>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
@@ -6547,8 +7165,10 @@
       <c r="W174"/>
       <c r="X174"/>
       <c r="Y174"/>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z174"/>
+      <c r="AA174"/>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
@@ -6574,8 +7194,10 @@
       <c r="W175"/>
       <c r="X175"/>
       <c r="Y175"/>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z175"/>
+      <c r="AA175"/>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
@@ -6601,8 +7223,10 @@
       <c r="W176"/>
       <c r="X176"/>
       <c r="Y176"/>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z176"/>
+      <c r="AA176"/>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
@@ -6628,8 +7252,10 @@
       <c r="W177"/>
       <c r="X177"/>
       <c r="Y177"/>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z177"/>
+      <c r="AA177"/>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
@@ -6655,8 +7281,10 @@
       <c r="W178"/>
       <c r="X178"/>
       <c r="Y178"/>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z178"/>
+      <c r="AA178"/>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
@@ -6682,8 +7310,10 @@
       <c r="W179"/>
       <c r="X179"/>
       <c r="Y179"/>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z179"/>
+      <c r="AA179"/>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
@@ -6709,8 +7339,10 @@
       <c r="W180"/>
       <c r="X180"/>
       <c r="Y180"/>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z180"/>
+      <c r="AA180"/>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
@@ -6736,8 +7368,10 @@
       <c r="W181"/>
       <c r="X181"/>
       <c r="Y181"/>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z181"/>
+      <c r="AA181"/>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
@@ -6763,8 +7397,10 @@
       <c r="W182"/>
       <c r="X182"/>
       <c r="Y182"/>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z182"/>
+      <c r="AA182"/>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
@@ -6790,8 +7426,10 @@
       <c r="W183"/>
       <c r="X183"/>
       <c r="Y183"/>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z183"/>
+      <c r="AA183"/>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
@@ -6817,8 +7455,10 @@
       <c r="W184"/>
       <c r="X184"/>
       <c r="Y184"/>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z184"/>
+      <c r="AA184"/>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
@@ -6844,8 +7484,10 @@
       <c r="W185"/>
       <c r="X185"/>
       <c r="Y185"/>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z185"/>
+      <c r="AA185"/>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
@@ -6871,8 +7513,10 @@
       <c r="W186"/>
       <c r="X186"/>
       <c r="Y186"/>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z186"/>
+      <c r="AA186"/>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
@@ -6898,8 +7542,10 @@
       <c r="W187"/>
       <c r="X187"/>
       <c r="Y187"/>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z187"/>
+      <c r="AA187"/>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
@@ -6925,8 +7571,10 @@
       <c r="W188"/>
       <c r="X188"/>
       <c r="Y188"/>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z188"/>
+      <c r="AA188"/>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
@@ -6952,8 +7600,10 @@
       <c r="W189"/>
       <c r="X189"/>
       <c r="Y189"/>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z189"/>
+      <c r="AA189"/>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
@@ -6979,8 +7629,10 @@
       <c r="W190"/>
       <c r="X190"/>
       <c r="Y190"/>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z190"/>
+      <c r="AA190"/>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -7006,8 +7658,10 @@
       <c r="W191"/>
       <c r="X191"/>
       <c r="Y191"/>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z191"/>
+      <c r="AA191"/>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
@@ -7033,8 +7687,10 @@
       <c r="W192"/>
       <c r="X192"/>
       <c r="Y192"/>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z192"/>
+      <c r="AA192"/>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
@@ -7060,8 +7716,10 @@
       <c r="W193"/>
       <c r="X193"/>
       <c r="Y193"/>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z193"/>
+      <c r="AA193"/>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
@@ -7087,8 +7745,10 @@
       <c r="W194"/>
       <c r="X194"/>
       <c r="Y194"/>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z194"/>
+      <c r="AA194"/>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
@@ -7114,8 +7774,10 @@
       <c r="W195"/>
       <c r="X195"/>
       <c r="Y195"/>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z195"/>
+      <c r="AA195"/>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
@@ -7141,8 +7803,10 @@
       <c r="W196"/>
       <c r="X196"/>
       <c r="Y196"/>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z196"/>
+      <c r="AA196"/>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
@@ -7168,8 +7832,10 @@
       <c r="W197"/>
       <c r="X197"/>
       <c r="Y197"/>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z197"/>
+      <c r="AA197"/>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
@@ -7195,8 +7861,10 @@
       <c r="W198"/>
       <c r="X198"/>
       <c r="Y198"/>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z198"/>
+      <c r="AA198"/>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
@@ -7222,8 +7890,10 @@
       <c r="W199"/>
       <c r="X199"/>
       <c r="Y199"/>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z199"/>
+      <c r="AA199"/>
+    </row>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
@@ -7249,8 +7919,10 @@
       <c r="W200"/>
       <c r="X200"/>
       <c r="Y200"/>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z200"/>
+      <c r="AA200"/>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
@@ -7276,8 +7948,10 @@
       <c r="W201"/>
       <c r="X201"/>
       <c r="Y201"/>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z201"/>
+      <c r="AA201"/>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
@@ -7303,8 +7977,10 @@
       <c r="W202"/>
       <c r="X202"/>
       <c r="Y202"/>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z202"/>
+      <c r="AA202"/>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
@@ -7330,8 +8006,10 @@
       <c r="W203"/>
       <c r="X203"/>
       <c r="Y203"/>
-    </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z203"/>
+      <c r="AA203"/>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
@@ -7357,8 +8035,10 @@
       <c r="W204"/>
       <c r="X204"/>
       <c r="Y204"/>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z204"/>
+      <c r="AA204"/>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
@@ -7384,8 +8064,10 @@
       <c r="W205"/>
       <c r="X205"/>
       <c r="Y205"/>
-    </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z205"/>
+      <c r="AA205"/>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
@@ -7411,8 +8093,10 @@
       <c r="W206"/>
       <c r="X206"/>
       <c r="Y206"/>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z206"/>
+      <c r="AA206"/>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
@@ -7438,8 +8122,10 @@
       <c r="W207"/>
       <c r="X207"/>
       <c r="Y207"/>
-    </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z207"/>
+      <c r="AA207"/>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
@@ -7465,8 +8151,10 @@
       <c r="W208"/>
       <c r="X208"/>
       <c r="Y208"/>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z208"/>
+      <c r="AA208"/>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
@@ -7492,8 +8180,10 @@
       <c r="W209"/>
       <c r="X209"/>
       <c r="Y209"/>
-    </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z209"/>
+      <c r="AA209"/>
+    </row>
+    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -7519,8 +8209,10 @@
       <c r="W210"/>
       <c r="X210"/>
       <c r="Y210"/>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z210"/>
+      <c r="AA210"/>
+    </row>
+    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
@@ -7546,8 +8238,10 @@
       <c r="W211"/>
       <c r="X211"/>
       <c r="Y211"/>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z211"/>
+      <c r="AA211"/>
+    </row>
+    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
@@ -7573,8 +8267,10 @@
       <c r="W212"/>
       <c r="X212"/>
       <c r="Y212"/>
-    </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z212"/>
+      <c r="AA212"/>
+    </row>
+    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -7600,8 +8296,10 @@
       <c r="W213"/>
       <c r="X213"/>
       <c r="Y213"/>
-    </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z213"/>
+      <c r="AA213"/>
+    </row>
+    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
@@ -7627,8 +8325,10 @@
       <c r="W214"/>
       <c r="X214"/>
       <c r="Y214"/>
-    </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z214"/>
+      <c r="AA214"/>
+    </row>
+    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
@@ -7654,8 +8354,10 @@
       <c r="W215"/>
       <c r="X215"/>
       <c r="Y215"/>
-    </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z215"/>
+      <c r="AA215"/>
+    </row>
+    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
@@ -7681,8 +8383,10 @@
       <c r="W216"/>
       <c r="X216"/>
       <c r="Y216"/>
-    </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z216"/>
+      <c r="AA216"/>
+    </row>
+    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
@@ -7708,8 +8412,10 @@
       <c r="W217"/>
       <c r="X217"/>
       <c r="Y217"/>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z217"/>
+      <c r="AA217"/>
+    </row>
+    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
@@ -7735,8 +8441,10 @@
       <c r="W218"/>
       <c r="X218"/>
       <c r="Y218"/>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z218"/>
+      <c r="AA218"/>
+    </row>
+    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
@@ -7762,8 +8470,10 @@
       <c r="W219"/>
       <c r="X219"/>
       <c r="Y219"/>
-    </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z219"/>
+      <c r="AA219"/>
+    </row>
+    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
@@ -7789,8 +8499,10 @@
       <c r="W220"/>
       <c r="X220"/>
       <c r="Y220"/>
-    </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z220"/>
+      <c r="AA220"/>
+    </row>
+    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -7816,8 +8528,10 @@
       <c r="W221"/>
       <c r="X221"/>
       <c r="Y221"/>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z221"/>
+      <c r="AA221"/>
+    </row>
+    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -7843,8 +8557,10 @@
       <c r="W222"/>
       <c r="X222"/>
       <c r="Y222"/>
-    </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z222"/>
+      <c r="AA222"/>
+    </row>
+    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -7870,8 +8586,10 @@
       <c r="W223"/>
       <c r="X223"/>
       <c r="Y223"/>
-    </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z223"/>
+      <c r="AA223"/>
+    </row>
+    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
@@ -7897,8 +8615,10 @@
       <c r="W224"/>
       <c r="X224"/>
       <c r="Y224"/>
-    </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z224"/>
+      <c r="AA224"/>
+    </row>
+    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
@@ -7924,8 +8644,10 @@
       <c r="W225"/>
       <c r="X225"/>
       <c r="Y225"/>
-    </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z225"/>
+      <c r="AA225"/>
+    </row>
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
@@ -7951,8 +8673,10 @@
       <c r="W226"/>
       <c r="X226"/>
       <c r="Y226"/>
-    </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z226"/>
+      <c r="AA226"/>
+    </row>
+    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
@@ -7978,8 +8702,10 @@
       <c r="W227"/>
       <c r="X227"/>
       <c r="Y227"/>
-    </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z227"/>
+      <c r="AA227"/>
+    </row>
+    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
@@ -8005,8 +8731,10 @@
       <c r="W228"/>
       <c r="X228"/>
       <c r="Y228"/>
-    </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z228"/>
+      <c r="AA228"/>
+    </row>
+    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
@@ -8032,8 +8760,10 @@
       <c r="W229"/>
       <c r="X229"/>
       <c r="Y229"/>
-    </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z229"/>
+      <c r="AA229"/>
+    </row>
+    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
@@ -8059,8 +8789,10 @@
       <c r="W230"/>
       <c r="X230"/>
       <c r="Y230"/>
-    </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z230"/>
+      <c r="AA230"/>
+    </row>
+    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
@@ -8086,8 +8818,10 @@
       <c r="W231"/>
       <c r="X231"/>
       <c r="Y231"/>
-    </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z231"/>
+      <c r="AA231"/>
+    </row>
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
@@ -8113,8 +8847,10 @@
       <c r="W232"/>
       <c r="X232"/>
       <c r="Y232"/>
-    </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z232"/>
+      <c r="AA232"/>
+    </row>
+    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
@@ -8140,8 +8876,10 @@
       <c r="W233"/>
       <c r="X233"/>
       <c r="Y233"/>
-    </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z233"/>
+      <c r="AA233"/>
+    </row>
+    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
@@ -8167,8 +8905,10 @@
       <c r="W234"/>
       <c r="X234"/>
       <c r="Y234"/>
-    </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z234"/>
+      <c r="AA234"/>
+    </row>
+    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
@@ -8194,8 +8934,10 @@
       <c r="W235"/>
       <c r="X235"/>
       <c r="Y235"/>
-    </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z235"/>
+      <c r="AA235"/>
+    </row>
+    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
@@ -8221,8 +8963,10 @@
       <c r="W236"/>
       <c r="X236"/>
       <c r="Y236"/>
-    </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z236"/>
+      <c r="AA236"/>
+    </row>
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
@@ -8248,8 +8992,10 @@
       <c r="W237"/>
       <c r="X237"/>
       <c r="Y237"/>
-    </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z237"/>
+      <c r="AA237"/>
+    </row>
+    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
@@ -8275,8 +9021,10 @@
       <c r="W238"/>
       <c r="X238"/>
       <c r="Y238"/>
-    </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z238"/>
+      <c r="AA238"/>
+    </row>
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
@@ -8302,8 +9050,10 @@
       <c r="W239"/>
       <c r="X239"/>
       <c r="Y239"/>
-    </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z239"/>
+      <c r="AA239"/>
+    </row>
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
@@ -8329,8 +9079,10 @@
       <c r="W240"/>
       <c r="X240"/>
       <c r="Y240"/>
-    </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z240"/>
+      <c r="AA240"/>
+    </row>
+    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
@@ -8356,8 +9108,10 @@
       <c r="W241"/>
       <c r="X241"/>
       <c r="Y241"/>
-    </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z241"/>
+      <c r="AA241"/>
+    </row>
+    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
@@ -8383,8 +9137,10 @@
       <c r="W242"/>
       <c r="X242"/>
       <c r="Y242"/>
-    </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z242"/>
+      <c r="AA242"/>
+    </row>
+    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
@@ -8410,8 +9166,10 @@
       <c r="W243"/>
       <c r="X243"/>
       <c r="Y243"/>
-    </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z243"/>
+      <c r="AA243"/>
+    </row>
+    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
@@ -8437,8 +9195,10 @@
       <c r="W244"/>
       <c r="X244"/>
       <c r="Y244"/>
-    </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z244"/>
+      <c r="AA244"/>
+    </row>
+    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
@@ -8464,8 +9224,10 @@
       <c r="W245"/>
       <c r="X245"/>
       <c r="Y245"/>
-    </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z245"/>
+      <c r="AA245"/>
+    </row>
+    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
@@ -8491,8 +9253,10 @@
       <c r="W246"/>
       <c r="X246"/>
       <c r="Y246"/>
-    </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z246"/>
+      <c r="AA246"/>
+    </row>
+    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
@@ -8518,8 +9282,10 @@
       <c r="W247"/>
       <c r="X247"/>
       <c r="Y247"/>
-    </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z247"/>
+      <c r="AA247"/>
+    </row>
+    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
@@ -8545,8 +9311,10 @@
       <c r="W248"/>
       <c r="X248"/>
       <c r="Y248"/>
-    </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z248"/>
+      <c r="AA248"/>
+    </row>
+    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
@@ -8572,8 +9340,10 @@
       <c r="W249"/>
       <c r="X249"/>
       <c r="Y249"/>
-    </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z249"/>
+      <c r="AA249"/>
+    </row>
+    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
@@ -8599,8 +9369,10 @@
       <c r="W250"/>
       <c r="X250"/>
       <c r="Y250"/>
-    </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z250"/>
+      <c r="AA250"/>
+    </row>
+    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
@@ -8626,8 +9398,10 @@
       <c r="W251"/>
       <c r="X251"/>
       <c r="Y251"/>
-    </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z251"/>
+      <c r="AA251"/>
+    </row>
+    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
@@ -8653,8 +9427,10 @@
       <c r="W252"/>
       <c r="X252"/>
       <c r="Y252"/>
-    </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z252"/>
+      <c r="AA252"/>
+    </row>
+    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
@@ -8680,8 +9456,10 @@
       <c r="W253"/>
       <c r="X253"/>
       <c r="Y253"/>
-    </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z253"/>
+      <c r="AA253"/>
+    </row>
+    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
@@ -8707,8 +9485,10 @@
       <c r="W254"/>
       <c r="X254"/>
       <c r="Y254"/>
-    </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z254"/>
+      <c r="AA254"/>
+    </row>
+    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
@@ -8734,8 +9514,10 @@
       <c r="W255"/>
       <c r="X255"/>
       <c r="Y255"/>
-    </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z255"/>
+      <c r="AA255"/>
+    </row>
+    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
@@ -8761,8 +9543,10 @@
       <c r="W256"/>
       <c r="X256"/>
       <c r="Y256"/>
-    </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z256"/>
+      <c r="AA256"/>
+    </row>
+    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
@@ -8788,8 +9572,10 @@
       <c r="W257"/>
       <c r="X257"/>
       <c r="Y257"/>
-    </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z257"/>
+      <c r="AA257"/>
+    </row>
+    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
@@ -8815,8 +9601,10 @@
       <c r="W258"/>
       <c r="X258"/>
       <c r="Y258"/>
-    </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z258"/>
+      <c r="AA258"/>
+    </row>
+    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
@@ -8842,8 +9630,10 @@
       <c r="W259"/>
       <c r="X259"/>
       <c r="Y259"/>
-    </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z259"/>
+      <c r="AA259"/>
+    </row>
+    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
@@ -8869,8 +9659,10 @@
       <c r="W260"/>
       <c r="X260"/>
       <c r="Y260"/>
-    </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z260"/>
+      <c r="AA260"/>
+    </row>
+    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
@@ -8896,8 +9688,10 @@
       <c r="W261"/>
       <c r="X261"/>
       <c r="Y261"/>
-    </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z261"/>
+      <c r="AA261"/>
+    </row>
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
@@ -8923,8 +9717,10 @@
       <c r="W262"/>
       <c r="X262"/>
       <c r="Y262"/>
-    </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z262"/>
+      <c r="AA262"/>
+    </row>
+    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
@@ -8950,8 +9746,10 @@
       <c r="W263"/>
       <c r="X263"/>
       <c r="Y263"/>
-    </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z263"/>
+      <c r="AA263"/>
+    </row>
+    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
@@ -8977,8 +9775,10 @@
       <c r="W264"/>
       <c r="X264"/>
       <c r="Y264"/>
-    </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z264"/>
+      <c r="AA264"/>
+    </row>
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
@@ -9004,8 +9804,10 @@
       <c r="W265"/>
       <c r="X265"/>
       <c r="Y265"/>
-    </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z265"/>
+      <c r="AA265"/>
+    </row>
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
@@ -9031,8 +9833,10 @@
       <c r="W266"/>
       <c r="X266"/>
       <c r="Y266"/>
-    </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z266"/>
+      <c r="AA266"/>
+    </row>
+    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
@@ -9058,8 +9862,10 @@
       <c r="W267"/>
       <c r="X267"/>
       <c r="Y267"/>
-    </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z267"/>
+      <c r="AA267"/>
+    </row>
+    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
@@ -9085,8 +9891,10 @@
       <c r="W268"/>
       <c r="X268"/>
       <c r="Y268"/>
-    </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z268"/>
+      <c r="AA268"/>
+    </row>
+    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
@@ -9112,8 +9920,10 @@
       <c r="W269"/>
       <c r="X269"/>
       <c r="Y269"/>
-    </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z269"/>
+      <c r="AA269"/>
+    </row>
+    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
@@ -9139,8 +9949,10 @@
       <c r="W270"/>
       <c r="X270"/>
       <c r="Y270"/>
-    </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z270"/>
+      <c r="AA270"/>
+    </row>
+    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
@@ -9166,8 +9978,10 @@
       <c r="W271"/>
       <c r="X271"/>
       <c r="Y271"/>
-    </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z271"/>
+      <c r="AA271"/>
+    </row>
+    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
@@ -9193,8 +10007,10 @@
       <c r="W272"/>
       <c r="X272"/>
       <c r="Y272"/>
-    </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z272"/>
+      <c r="AA272"/>
+    </row>
+    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A273"/>
       <c r="B273"/>
       <c r="C273"/>
@@ -9220,8 +10036,10 @@
       <c r="W273"/>
       <c r="X273"/>
       <c r="Y273"/>
-    </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z273"/>
+      <c r="AA273"/>
+    </row>
+    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
@@ -9247,8 +10065,10 @@
       <c r="W274"/>
       <c r="X274"/>
       <c r="Y274"/>
-    </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z274"/>
+      <c r="AA274"/>
+    </row>
+    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A275"/>
       <c r="B275"/>
       <c r="C275"/>
@@ -9274,8 +10094,10 @@
       <c r="W275"/>
       <c r="X275"/>
       <c r="Y275"/>
-    </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z275"/>
+      <c r="AA275"/>
+    </row>
+    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A276"/>
       <c r="B276"/>
       <c r="C276"/>
@@ -9301,8 +10123,10 @@
       <c r="W276"/>
       <c r="X276"/>
       <c r="Y276"/>
-    </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z276"/>
+      <c r="AA276"/>
+    </row>
+    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A277"/>
       <c r="B277"/>
       <c r="C277"/>
@@ -9328,8 +10152,10 @@
       <c r="W277"/>
       <c r="X277"/>
       <c r="Y277"/>
-    </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z277"/>
+      <c r="AA277"/>
+    </row>
+    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A278"/>
       <c r="B278"/>
       <c r="C278"/>
@@ -9355,8 +10181,10 @@
       <c r="W278"/>
       <c r="X278"/>
       <c r="Y278"/>
-    </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z278"/>
+      <c r="AA278"/>
+    </row>
+    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A279"/>
       <c r="B279"/>
       <c r="C279"/>
@@ -9382,8 +10210,10 @@
       <c r="W279"/>
       <c r="X279"/>
       <c r="Y279"/>
-    </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z279"/>
+      <c r="AA279"/>
+    </row>
+    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A280"/>
       <c r="B280"/>
       <c r="C280"/>
@@ -9409,8 +10239,10 @@
       <c r="W280"/>
       <c r="X280"/>
       <c r="Y280"/>
-    </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z280"/>
+      <c r="AA280"/>
+    </row>
+    <row r="281" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A281"/>
       <c r="B281"/>
       <c r="C281"/>
@@ -9436,8 +10268,10 @@
       <c r="W281"/>
       <c r="X281"/>
       <c r="Y281"/>
-    </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z281"/>
+      <c r="AA281"/>
+    </row>
+    <row r="282" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A282"/>
       <c r="B282"/>
       <c r="C282"/>
@@ -9463,8 +10297,10 @@
       <c r="W282"/>
       <c r="X282"/>
       <c r="Y282"/>
-    </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z282"/>
+      <c r="AA282"/>
+    </row>
+    <row r="283" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A283"/>
       <c r="B283"/>
       <c r="C283"/>
@@ -9490,8 +10326,10 @@
       <c r="W283"/>
       <c r="X283"/>
       <c r="Y283"/>
-    </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z283"/>
+      <c r="AA283"/>
+    </row>
+    <row r="284" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
@@ -9517,8 +10355,10 @@
       <c r="W284"/>
       <c r="X284"/>
       <c r="Y284"/>
-    </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z284"/>
+      <c r="AA284"/>
+    </row>
+    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A285"/>
       <c r="B285"/>
       <c r="C285"/>
@@ -9544,8 +10384,10 @@
       <c r="W285"/>
       <c r="X285"/>
       <c r="Y285"/>
-    </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z285"/>
+      <c r="AA285"/>
+    </row>
+    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A286"/>
       <c r="B286"/>
       <c r="C286"/>
@@ -9571,8 +10413,10 @@
       <c r="W286"/>
       <c r="X286"/>
       <c r="Y286"/>
-    </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z286"/>
+      <c r="AA286"/>
+    </row>
+    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
@@ -9598,8 +10442,10 @@
       <c r="W287"/>
       <c r="X287"/>
       <c r="Y287"/>
-    </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z287"/>
+      <c r="AA287"/>
+    </row>
+    <row r="288" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A288"/>
       <c r="B288"/>
       <c r="C288"/>
@@ -9625,8 +10471,10 @@
       <c r="W288"/>
       <c r="X288"/>
       <c r="Y288"/>
-    </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z288"/>
+      <c r="AA288"/>
+    </row>
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
@@ -9652,8 +10500,10 @@
       <c r="W289"/>
       <c r="X289"/>
       <c r="Y289"/>
-    </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z289"/>
+      <c r="AA289"/>
+    </row>
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
@@ -9679,8 +10529,10 @@
       <c r="W290"/>
       <c r="X290"/>
       <c r="Y290"/>
-    </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z290"/>
+      <c r="AA290"/>
+    </row>
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
@@ -9706,8 +10558,10 @@
       <c r="W291"/>
       <c r="X291"/>
       <c r="Y291"/>
-    </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z291"/>
+      <c r="AA291"/>
+    </row>
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
@@ -9733,8 +10587,10 @@
       <c r="W292"/>
       <c r="X292"/>
       <c r="Y292"/>
-    </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z292"/>
+      <c r="AA292"/>
+    </row>
+    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
@@ -9760,8 +10616,10 @@
       <c r="W293"/>
       <c r="X293"/>
       <c r="Y293"/>
-    </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z293"/>
+      <c r="AA293"/>
+    </row>
+    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
@@ -9787,8 +10645,10 @@
       <c r="W294"/>
       <c r="X294"/>
       <c r="Y294"/>
-    </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z294"/>
+      <c r="AA294"/>
+    </row>
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
@@ -9814,8 +10674,10 @@
       <c r="W295"/>
       <c r="X295"/>
       <c r="Y295"/>
-    </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z295"/>
+      <c r="AA295"/>
+    </row>
+    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
@@ -9841,8 +10703,10 @@
       <c r="W296"/>
       <c r="X296"/>
       <c r="Y296"/>
-    </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z296"/>
+      <c r="AA296"/>
+    </row>
+    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
@@ -9868,8 +10732,10 @@
       <c r="W297"/>
       <c r="X297"/>
       <c r="Y297"/>
-    </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z297"/>
+      <c r="AA297"/>
+    </row>
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
@@ -9895,8 +10761,10 @@
       <c r="W298"/>
       <c r="X298"/>
       <c r="Y298"/>
-    </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z298"/>
+      <c r="AA298"/>
+    </row>
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
@@ -9922,8 +10790,10 @@
       <c r="W299"/>
       <c r="X299"/>
       <c r="Y299"/>
-    </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z299"/>
+      <c r="AA299"/>
+    </row>
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
@@ -9949,8 +10819,10 @@
       <c r="W300"/>
       <c r="X300"/>
       <c r="Y300"/>
-    </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z300"/>
+      <c r="AA300"/>
+    </row>
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
@@ -9976,8 +10848,10 @@
       <c r="W301"/>
       <c r="X301"/>
       <c r="Y301"/>
-    </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z301"/>
+      <c r="AA301"/>
+    </row>
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302"/>
@@ -10003,8 +10877,10 @@
       <c r="W302"/>
       <c r="X302"/>
       <c r="Y302"/>
-    </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z302"/>
+      <c r="AA302"/>
+    </row>
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303"/>
       <c r="B303"/>
       <c r="C303"/>
@@ -10030,8 +10906,10 @@
       <c r="W303"/>
       <c r="X303"/>
       <c r="Y303"/>
-    </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z303"/>
+      <c r="AA303"/>
+    </row>
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
@@ -10057,8 +10935,10 @@
       <c r="W304"/>
       <c r="X304"/>
       <c r="Y304"/>
-    </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z304"/>
+      <c r="AA304"/>
+    </row>
+    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
@@ -10084,8 +10964,10 @@
       <c r="W305"/>
       <c r="X305"/>
       <c r="Y305"/>
-    </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z305"/>
+      <c r="AA305"/>
+    </row>
+    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A306"/>
       <c r="B306"/>
       <c r="C306"/>
@@ -10111,8 +10993,10 @@
       <c r="W306"/>
       <c r="X306"/>
       <c r="Y306"/>
-    </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z306"/>
+      <c r="AA306"/>
+    </row>
+    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307"/>
@@ -10138,8 +11022,10 @@
       <c r="W307"/>
       <c r="X307"/>
       <c r="Y307"/>
-    </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z307"/>
+      <c r="AA307"/>
+    </row>
+    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A308"/>
       <c r="B308"/>
       <c r="C308"/>
@@ -10165,8 +11051,10 @@
       <c r="W308"/>
       <c r="X308"/>
       <c r="Y308"/>
-    </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z308"/>
+      <c r="AA308"/>
+    </row>
+    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A309"/>
       <c r="B309"/>
       <c r="C309"/>
@@ -10192,8 +11080,10 @@
       <c r="W309"/>
       <c r="X309"/>
       <c r="Y309"/>
-    </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z309"/>
+      <c r="AA309"/>
+    </row>
+    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
@@ -10219,8 +11109,10 @@
       <c r="W310"/>
       <c r="X310"/>
       <c r="Y310"/>
-    </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z310"/>
+      <c r="AA310"/>
+    </row>
+    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A311"/>
       <c r="B311"/>
       <c r="C311"/>
@@ -10246,8 +11138,10 @@
       <c r="W311"/>
       <c r="X311"/>
       <c r="Y311"/>
-    </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z311"/>
+      <c r="AA311"/>
+    </row>
+    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A312"/>
       <c r="B312"/>
       <c r="C312"/>
@@ -10273,8 +11167,10 @@
       <c r="W312"/>
       <c r="X312"/>
       <c r="Y312"/>
-    </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z312"/>
+      <c r="AA312"/>
+    </row>
+    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A313"/>
       <c r="B313"/>
       <c r="C313"/>
@@ -10300,8 +11196,10 @@
       <c r="W313"/>
       <c r="X313"/>
       <c r="Y313"/>
-    </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z313"/>
+      <c r="AA313"/>
+    </row>
+    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A314"/>
       <c r="B314"/>
       <c r="C314"/>
@@ -10327,8 +11225,10 @@
       <c r="W314"/>
       <c r="X314"/>
       <c r="Y314"/>
-    </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z314"/>
+      <c r="AA314"/>
+    </row>
+    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A315"/>
       <c r="B315"/>
       <c r="C315"/>
@@ -10354,8 +11254,10 @@
       <c r="W315"/>
       <c r="X315"/>
       <c r="Y315"/>
-    </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z315"/>
+      <c r="AA315"/>
+    </row>
+    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A316"/>
       <c r="B316"/>
       <c r="C316"/>
@@ -10381,8 +11283,10 @@
       <c r="W316"/>
       <c r="X316"/>
       <c r="Y316"/>
-    </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z316"/>
+      <c r="AA316"/>
+    </row>
+    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A317"/>
       <c r="B317"/>
       <c r="C317"/>
@@ -10408,8 +11312,10 @@
       <c r="W317"/>
       <c r="X317"/>
       <c r="Y317"/>
-    </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z317"/>
+      <c r="AA317"/>
+    </row>
+    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A318"/>
       <c r="B318"/>
       <c r="C318"/>
@@ -10435,8 +11341,10 @@
       <c r="W318"/>
       <c r="X318"/>
       <c r="Y318"/>
-    </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z318"/>
+      <c r="AA318"/>
+    </row>
+    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A319"/>
       <c r="B319"/>
       <c r="C319"/>
@@ -10462,8 +11370,10 @@
       <c r="W319"/>
       <c r="X319"/>
       <c r="Y319"/>
-    </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z319"/>
+      <c r="AA319"/>
+    </row>
+    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A320"/>
       <c r="B320"/>
       <c r="C320"/>
@@ -10489,8 +11399,10 @@
       <c r="W320"/>
       <c r="X320"/>
       <c r="Y320"/>
-    </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z320"/>
+      <c r="AA320"/>
+    </row>
+    <row r="321" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A321"/>
       <c r="B321"/>
       <c r="C321"/>
@@ -10516,8 +11428,10 @@
       <c r="W321"/>
       <c r="X321"/>
       <c r="Y321"/>
-    </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z321"/>
+      <c r="AA321"/>
+    </row>
+    <row r="322" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A322"/>
       <c r="B322"/>
       <c r="C322"/>
@@ -10543,8 +11457,10 @@
       <c r="W322"/>
       <c r="X322"/>
       <c r="Y322"/>
-    </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z322"/>
+      <c r="AA322"/>
+    </row>
+    <row r="323" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A323"/>
       <c r="B323"/>
       <c r="C323"/>
@@ -10570,8 +11486,10 @@
       <c r="W323"/>
       <c r="X323"/>
       <c r="Y323"/>
-    </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z323"/>
+      <c r="AA323"/>
+    </row>
+    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A324"/>
       <c r="B324"/>
       <c r="C324"/>
@@ -10597,8 +11515,10 @@
       <c r="W324"/>
       <c r="X324"/>
       <c r="Y324"/>
-    </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z324"/>
+      <c r="AA324"/>
+    </row>
+    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A325"/>
       <c r="B325"/>
       <c r="C325"/>
@@ -10624,8 +11544,10 @@
       <c r="W325"/>
       <c r="X325"/>
       <c r="Y325"/>
-    </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z325"/>
+      <c r="AA325"/>
+    </row>
+    <row r="326" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A326"/>
       <c r="B326"/>
       <c r="C326"/>
@@ -10651,8 +11573,10 @@
       <c r="W326"/>
       <c r="X326"/>
       <c r="Y326"/>
-    </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z326"/>
+      <c r="AA326"/>
+    </row>
+    <row r="327" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A327"/>
       <c r="B327"/>
       <c r="C327"/>
@@ -10678,8 +11602,10 @@
       <c r="W327"/>
       <c r="X327"/>
       <c r="Y327"/>
-    </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z327"/>
+      <c r="AA327"/>
+    </row>
+    <row r="328" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A328"/>
       <c r="B328"/>
       <c r="C328"/>
@@ -10705,8 +11631,10 @@
       <c r="W328"/>
       <c r="X328"/>
       <c r="Y328"/>
-    </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z328"/>
+      <c r="AA328"/>
+    </row>
+    <row r="329" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A329"/>
       <c r="B329"/>
       <c r="C329"/>
@@ -10732,8 +11660,10 @@
       <c r="W329"/>
       <c r="X329"/>
       <c r="Y329"/>
-    </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z329"/>
+      <c r="AA329"/>
+    </row>
+    <row r="330" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A330"/>
       <c r="B330"/>
       <c r="C330"/>
@@ -10759,8 +11689,10 @@
       <c r="W330"/>
       <c r="X330"/>
       <c r="Y330"/>
-    </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z330"/>
+      <c r="AA330"/>
+    </row>
+    <row r="331" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A331"/>
       <c r="B331"/>
       <c r="C331"/>
@@ -10786,8 +11718,10 @@
       <c r="W331"/>
       <c r="X331"/>
       <c r="Y331"/>
-    </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z331"/>
+      <c r="AA331"/>
+    </row>
+    <row r="332" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A332"/>
       <c r="B332"/>
       <c r="C332"/>
@@ -10813,8 +11747,10 @@
       <c r="W332"/>
       <c r="X332"/>
       <c r="Y332"/>
-    </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z332"/>
+      <c r="AA332"/>
+    </row>
+    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
@@ -10840,8 +11776,10 @@
       <c r="W333"/>
       <c r="X333"/>
       <c r="Y333"/>
-    </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z333"/>
+      <c r="AA333"/>
+    </row>
+    <row r="334" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A334"/>
       <c r="B334"/>
       <c r="C334"/>
@@ -10867,8 +11805,10 @@
       <c r="W334"/>
       <c r="X334"/>
       <c r="Y334"/>
-    </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z334"/>
+      <c r="AA334"/>
+    </row>
+    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A335"/>
       <c r="B335"/>
       <c r="C335"/>
@@ -10894,8 +11834,10 @@
       <c r="W335"/>
       <c r="X335"/>
       <c r="Y335"/>
-    </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z335"/>
+      <c r="AA335"/>
+    </row>
+    <row r="336" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A336"/>
       <c r="B336"/>
       <c r="C336"/>
@@ -10921,8 +11863,10 @@
       <c r="W336"/>
       <c r="X336"/>
       <c r="Y336"/>
-    </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z336"/>
+      <c r="AA336"/>
+    </row>
+    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A337"/>
       <c r="B337"/>
       <c r="C337"/>
@@ -10948,8 +11892,10 @@
       <c r="W337"/>
       <c r="X337"/>
       <c r="Y337"/>
-    </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z337"/>
+      <c r="AA337"/>
+    </row>
+    <row r="338" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A338"/>
       <c r="B338"/>
       <c r="C338"/>
@@ -10975,8 +11921,10 @@
       <c r="W338"/>
       <c r="X338"/>
       <c r="Y338"/>
-    </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z338"/>
+      <c r="AA338"/>
+    </row>
+    <row r="339" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A339"/>
       <c r="B339"/>
       <c r="C339"/>
@@ -11002,8 +11950,10 @@
       <c r="W339"/>
       <c r="X339"/>
       <c r="Y339"/>
-    </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z339"/>
+      <c r="AA339"/>
+    </row>
+    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A340"/>
       <c r="B340"/>
       <c r="C340"/>
@@ -11029,8 +11979,10 @@
       <c r="W340"/>
       <c r="X340"/>
       <c r="Y340"/>
-    </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z340"/>
+      <c r="AA340"/>
+    </row>
+    <row r="341" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A341"/>
       <c r="B341"/>
       <c r="C341"/>
@@ -11056,8 +12008,10 @@
       <c r="W341"/>
       <c r="X341"/>
       <c r="Y341"/>
-    </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z341"/>
+      <c r="AA341"/>
+    </row>
+    <row r="342" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A342"/>
       <c r="B342"/>
       <c r="C342"/>
@@ -11083,8 +12037,10 @@
       <c r="W342"/>
       <c r="X342"/>
       <c r="Y342"/>
-    </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z342"/>
+      <c r="AA342"/>
+    </row>
+    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A343"/>
       <c r="B343"/>
       <c r="C343"/>
@@ -11110,8 +12066,10 @@
       <c r="W343"/>
       <c r="X343"/>
       <c r="Y343"/>
-    </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z343"/>
+      <c r="AA343"/>
+    </row>
+    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A344"/>
       <c r="B344"/>
       <c r="C344"/>
@@ -11137,8 +12095,10 @@
       <c r="W344"/>
       <c r="X344"/>
       <c r="Y344"/>
-    </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z344"/>
+      <c r="AA344"/>
+    </row>
+    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A345"/>
       <c r="B345"/>
       <c r="C345"/>
@@ -11164,8 +12124,10 @@
       <c r="W345"/>
       <c r="X345"/>
       <c r="Y345"/>
-    </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z345"/>
+      <c r="AA345"/>
+    </row>
+    <row r="346" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A346"/>
       <c r="B346"/>
       <c r="C346"/>
@@ -11191,8 +12153,10 @@
       <c r="W346"/>
       <c r="X346"/>
       <c r="Y346"/>
-    </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z346"/>
+      <c r="AA346"/>
+    </row>
+    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A347"/>
       <c r="B347"/>
       <c r="C347"/>
@@ -11218,8 +12182,10 @@
       <c r="W347"/>
       <c r="X347"/>
       <c r="Y347"/>
-    </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z347"/>
+      <c r="AA347"/>
+    </row>
+    <row r="348" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A348"/>
       <c r="B348"/>
       <c r="C348"/>
@@ -11245,8 +12211,10 @@
       <c r="W348"/>
       <c r="X348"/>
       <c r="Y348"/>
-    </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z348"/>
+      <c r="AA348"/>
+    </row>
+    <row r="349" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A349"/>
       <c r="B349"/>
       <c r="C349"/>
@@ -11272,8 +12240,10 @@
       <c r="W349"/>
       <c r="X349"/>
       <c r="Y349"/>
-    </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z349"/>
+      <c r="AA349"/>
+    </row>
+    <row r="350" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A350"/>
       <c r="B350"/>
       <c r="C350"/>
@@ -11299,8 +12269,10 @@
       <c r="W350"/>
       <c r="X350"/>
       <c r="Y350"/>
-    </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z350"/>
+      <c r="AA350"/>
+    </row>
+    <row r="351" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A351"/>
       <c r="B351"/>
       <c r="C351"/>
@@ -11326,8 +12298,10 @@
       <c r="W351"/>
       <c r="X351"/>
       <c r="Y351"/>
-    </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z351"/>
+      <c r="AA351"/>
+    </row>
+    <row r="352" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A352"/>
       <c r="B352"/>
       <c r="C352"/>
@@ -11353,8 +12327,10 @@
       <c r="W352"/>
       <c r="X352"/>
       <c r="Y352"/>
-    </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z352"/>
+      <c r="AA352"/>
+    </row>
+    <row r="353" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
@@ -11380,8 +12356,10 @@
       <c r="W353"/>
       <c r="X353"/>
       <c r="Y353"/>
-    </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z353"/>
+      <c r="AA353"/>
+    </row>
+    <row r="354" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A354"/>
       <c r="B354"/>
       <c r="C354"/>
@@ -11407,8 +12385,10 @@
       <c r="W354"/>
       <c r="X354"/>
       <c r="Y354"/>
-    </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z354"/>
+      <c r="AA354"/>
+    </row>
+    <row r="355" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A355"/>
       <c r="B355"/>
       <c r="C355"/>
@@ -11434,8 +12414,10 @@
       <c r="W355"/>
       <c r="X355"/>
       <c r="Y355"/>
-    </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z355"/>
+      <c r="AA355"/>
+    </row>
+    <row r="356" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
@@ -11461,8 +12443,10 @@
       <c r="W356"/>
       <c r="X356"/>
       <c r="Y356"/>
-    </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z356"/>
+      <c r="AA356"/>
+    </row>
+    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A357"/>
       <c r="B357"/>
       <c r="C357"/>
@@ -11488,8 +12472,10 @@
       <c r="W357"/>
       <c r="X357"/>
       <c r="Y357"/>
-    </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z357"/>
+      <c r="AA357"/>
+    </row>
+    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A358"/>
       <c r="B358"/>
       <c r="C358"/>
@@ -11515,8 +12501,10 @@
       <c r="W358"/>
       <c r="X358"/>
       <c r="Y358"/>
-    </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z358"/>
+      <c r="AA358"/>
+    </row>
+    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A359"/>
       <c r="B359"/>
       <c r="C359"/>
@@ -11542,8 +12530,10 @@
       <c r="W359"/>
       <c r="X359"/>
       <c r="Y359"/>
-    </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z359"/>
+      <c r="AA359"/>
+    </row>
+    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A360"/>
       <c r="B360"/>
       <c r="C360"/>
@@ -11569,8 +12559,10 @@
       <c r="W360"/>
       <c r="X360"/>
       <c r="Y360"/>
-    </row>
-    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z360"/>
+      <c r="AA360"/>
+    </row>
+    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A361"/>
       <c r="B361"/>
       <c r="C361"/>
@@ -11596,8 +12588,10 @@
       <c r="W361"/>
       <c r="X361"/>
       <c r="Y361"/>
-    </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z361"/>
+      <c r="AA361"/>
+    </row>
+    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A362"/>
       <c r="B362"/>
       <c r="C362"/>
@@ -11623,8 +12617,10 @@
       <c r="W362"/>
       <c r="X362"/>
       <c r="Y362"/>
-    </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z362"/>
+      <c r="AA362"/>
+    </row>
+    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A363"/>
       <c r="B363"/>
       <c r="C363"/>
@@ -11650,8 +12646,10 @@
       <c r="W363"/>
       <c r="X363"/>
       <c r="Y363"/>
-    </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z363"/>
+      <c r="AA363"/>
+    </row>
+    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A364"/>
       <c r="B364"/>
       <c r="C364"/>
@@ -11677,8 +12675,10 @@
       <c r="W364"/>
       <c r="X364"/>
       <c r="Y364"/>
-    </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z364"/>
+      <c r="AA364"/>
+    </row>
+    <row r="365" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A365"/>
       <c r="B365"/>
       <c r="C365"/>
@@ -11704,8 +12704,10 @@
       <c r="W365"/>
       <c r="X365"/>
       <c r="Y365"/>
-    </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z365"/>
+      <c r="AA365"/>
+    </row>
+    <row r="366" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A366"/>
       <c r="B366"/>
       <c r="C366"/>
@@ -11731,8 +12733,10 @@
       <c r="W366"/>
       <c r="X366"/>
       <c r="Y366"/>
-    </row>
-    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z366"/>
+      <c r="AA366"/>
+    </row>
+    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A367"/>
       <c r="B367"/>
       <c r="C367"/>
@@ -11758,8 +12762,10 @@
       <c r="W367"/>
       <c r="X367"/>
       <c r="Y367"/>
-    </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z367"/>
+      <c r="AA367"/>
+    </row>
+    <row r="368" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A368"/>
       <c r="B368"/>
       <c r="C368"/>
@@ -11785,8 +12791,10 @@
       <c r="W368"/>
       <c r="X368"/>
       <c r="Y368"/>
-    </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z368"/>
+      <c r="AA368"/>
+    </row>
+    <row r="369" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A369"/>
       <c r="B369"/>
       <c r="C369"/>
@@ -11812,8 +12820,10 @@
       <c r="W369"/>
       <c r="X369"/>
       <c r="Y369"/>
-    </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z369"/>
+      <c r="AA369"/>
+    </row>
+    <row r="370" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A370"/>
       <c r="B370"/>
       <c r="C370"/>
@@ -11839,8 +12849,10 @@
       <c r="W370"/>
       <c r="X370"/>
       <c r="Y370"/>
-    </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z370"/>
+      <c r="AA370"/>
+    </row>
+    <row r="371" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A371"/>
       <c r="B371"/>
       <c r="C371"/>
@@ -11866,8 +12878,10 @@
       <c r="W371"/>
       <c r="X371"/>
       <c r="Y371"/>
-    </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z371"/>
+      <c r="AA371"/>
+    </row>
+    <row r="372" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A372"/>
       <c r="B372"/>
       <c r="C372"/>
@@ -11893,8 +12907,10 @@
       <c r="W372"/>
       <c r="X372"/>
       <c r="Y372"/>
-    </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z372"/>
+      <c r="AA372"/>
+    </row>
+    <row r="373" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A373"/>
       <c r="B373"/>
       <c r="C373"/>
@@ -11920,8 +12936,10 @@
       <c r="W373"/>
       <c r="X373"/>
       <c r="Y373"/>
-    </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z373"/>
+      <c r="AA373"/>
+    </row>
+    <row r="374" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A374"/>
       <c r="B374"/>
       <c r="C374"/>
@@ -11947,8 +12965,10 @@
       <c r="W374"/>
       <c r="X374"/>
       <c r="Y374"/>
-    </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z374"/>
+      <c r="AA374"/>
+    </row>
+    <row r="375" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A375"/>
       <c r="B375"/>
       <c r="C375"/>
@@ -11974,8 +12994,10 @@
       <c r="W375"/>
       <c r="X375"/>
       <c r="Y375"/>
-    </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z375"/>
+      <c r="AA375"/>
+    </row>
+    <row r="376" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A376"/>
       <c r="B376"/>
       <c r="C376"/>
@@ -12001,8 +13023,10 @@
       <c r="W376"/>
       <c r="X376"/>
       <c r="Y376"/>
-    </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z376"/>
+      <c r="AA376"/>
+    </row>
+    <row r="377" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A377"/>
       <c r="B377"/>
       <c r="C377"/>
@@ -12028,8 +13052,10 @@
       <c r="W377"/>
       <c r="X377"/>
       <c r="Y377"/>
-    </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z377"/>
+      <c r="AA377"/>
+    </row>
+    <row r="378" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A378"/>
       <c r="B378"/>
       <c r="C378"/>
@@ -12055,8 +13081,10 @@
       <c r="W378"/>
       <c r="X378"/>
       <c r="Y378"/>
-    </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z378"/>
+      <c r="AA378"/>
+    </row>
+    <row r="379" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
@@ -12082,8 +13110,10 @@
       <c r="W379"/>
       <c r="X379"/>
       <c r="Y379"/>
-    </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z379"/>
+      <c r="AA379"/>
+    </row>
+    <row r="380" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A380"/>
       <c r="B380"/>
       <c r="C380"/>
@@ -12109,8 +13139,10 @@
       <c r="W380"/>
       <c r="X380"/>
       <c r="Y380"/>
-    </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z380"/>
+      <c r="AA380"/>
+    </row>
+    <row r="381" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A381"/>
       <c r="B381"/>
       <c r="C381"/>
@@ -12136,8 +13168,10 @@
       <c r="W381"/>
       <c r="X381"/>
       <c r="Y381"/>
-    </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z381"/>
+      <c r="AA381"/>
+    </row>
+    <row r="382" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A382"/>
       <c r="B382"/>
       <c r="C382"/>
@@ -12163,8 +13197,10 @@
       <c r="W382"/>
       <c r="X382"/>
       <c r="Y382"/>
-    </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z382"/>
+      <c r="AA382"/>
+    </row>
+    <row r="383" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A383"/>
       <c r="B383"/>
       <c r="C383"/>
@@ -12190,8 +13226,10 @@
       <c r="W383"/>
       <c r="X383"/>
       <c r="Y383"/>
-    </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z383"/>
+      <c r="AA383"/>
+    </row>
+    <row r="384" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A384"/>
       <c r="B384"/>
       <c r="C384"/>
@@ -12217,8 +13255,10 @@
       <c r="W384"/>
       <c r="X384"/>
       <c r="Y384"/>
-    </row>
-    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z384"/>
+      <c r="AA384"/>
+    </row>
+    <row r="385" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A385"/>
       <c r="B385"/>
       <c r="C385"/>
@@ -12244,8 +13284,10 @@
       <c r="W385"/>
       <c r="X385"/>
       <c r="Y385"/>
-    </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z385"/>
+      <c r="AA385"/>
+    </row>
+    <row r="386" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A386"/>
       <c r="B386"/>
       <c r="C386"/>
@@ -12271,8 +13313,10 @@
       <c r="W386"/>
       <c r="X386"/>
       <c r="Y386"/>
-    </row>
-    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z386"/>
+      <c r="AA386"/>
+    </row>
+    <row r="387" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A387"/>
       <c r="B387"/>
       <c r="C387"/>
@@ -12298,8 +13342,10 @@
       <c r="W387"/>
       <c r="X387"/>
       <c r="Y387"/>
-    </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z387"/>
+      <c r="AA387"/>
+    </row>
+    <row r="388" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
@@ -12325,8 +13371,10 @@
       <c r="W388"/>
       <c r="X388"/>
       <c r="Y388"/>
-    </row>
-    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z388"/>
+      <c r="AA388"/>
+    </row>
+    <row r="389" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
@@ -12352,8 +13400,10 @@
       <c r="W389"/>
       <c r="X389"/>
       <c r="Y389"/>
-    </row>
-    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z389"/>
+      <c r="AA389"/>
+    </row>
+    <row r="390" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
@@ -12379,8 +13429,10 @@
       <c r="W390"/>
       <c r="X390"/>
       <c r="Y390"/>
-    </row>
-    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z390"/>
+      <c r="AA390"/>
+    </row>
+    <row r="391" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
@@ -12406,8 +13458,10 @@
       <c r="W391"/>
       <c r="X391"/>
       <c r="Y391"/>
-    </row>
-    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z391"/>
+      <c r="AA391"/>
+    </row>
+    <row r="392" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
@@ -12433,8 +13487,10 @@
       <c r="W392"/>
       <c r="X392"/>
       <c r="Y392"/>
-    </row>
-    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z392"/>
+      <c r="AA392"/>
+    </row>
+    <row r="393" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
@@ -12460,8 +13516,10 @@
       <c r="W393"/>
       <c r="X393"/>
       <c r="Y393"/>
-    </row>
-    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z393"/>
+      <c r="AA393"/>
+    </row>
+    <row r="394" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
@@ -12487,8 +13545,10 @@
       <c r="W394"/>
       <c r="X394"/>
       <c r="Y394"/>
-    </row>
-    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z394"/>
+      <c r="AA394"/>
+    </row>
+    <row r="395" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
@@ -12514,8 +13574,10 @@
       <c r="W395"/>
       <c r="X395"/>
       <c r="Y395"/>
-    </row>
-    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z395"/>
+      <c r="AA395"/>
+    </row>
+    <row r="396" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
@@ -12541,8 +13603,10 @@
       <c r="W396"/>
       <c r="X396"/>
       <c r="Y396"/>
-    </row>
-    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z396"/>
+      <c r="AA396"/>
+    </row>
+    <row r="397" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A397"/>
       <c r="B397"/>
       <c r="C397"/>
@@ -12568,8 +13632,10 @@
       <c r="W397"/>
       <c r="X397"/>
       <c r="Y397"/>
-    </row>
-    <row r="398" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z397"/>
+      <c r="AA397"/>
+    </row>
+    <row r="398" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A398"/>
       <c r="B398"/>
       <c r="C398"/>
@@ -12595,8 +13661,10 @@
       <c r="W398"/>
       <c r="X398"/>
       <c r="Y398"/>
-    </row>
-    <row r="399" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z398"/>
+      <c r="AA398"/>
+    </row>
+    <row r="399" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A399"/>
       <c r="B399"/>
       <c r="C399"/>
@@ -12622,8 +13690,10 @@
       <c r="W399"/>
       <c r="X399"/>
       <c r="Y399"/>
-    </row>
-    <row r="400" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z399"/>
+      <c r="AA399"/>
+    </row>
+    <row r="400" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A400"/>
       <c r="B400"/>
       <c r="C400"/>
@@ -12649,8 +13719,10 @@
       <c r="W400"/>
       <c r="X400"/>
       <c r="Y400"/>
-    </row>
-    <row r="401" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z400"/>
+      <c r="AA400"/>
+    </row>
+    <row r="401" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A401"/>
       <c r="B401"/>
       <c r="C401"/>
@@ -12676,8 +13748,10 @@
       <c r="W401"/>
       <c r="X401"/>
       <c r="Y401"/>
-    </row>
-    <row r="402" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z401"/>
+      <c r="AA401"/>
+    </row>
+    <row r="402" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A402"/>
       <c r="B402"/>
       <c r="C402"/>
@@ -12703,8 +13777,10 @@
       <c r="W402"/>
       <c r="X402"/>
       <c r="Y402"/>
-    </row>
-    <row r="403" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z402"/>
+      <c r="AA402"/>
+    </row>
+    <row r="403" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A403"/>
       <c r="B403"/>
       <c r="C403"/>
@@ -12730,8 +13806,10 @@
       <c r="W403"/>
       <c r="X403"/>
       <c r="Y403"/>
-    </row>
-    <row r="404" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z403"/>
+      <c r="AA403"/>
+    </row>
+    <row r="404" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A404"/>
       <c r="B404"/>
       <c r="C404"/>
@@ -12757,8 +13835,10 @@
       <c r="W404"/>
       <c r="X404"/>
       <c r="Y404"/>
-    </row>
-    <row r="405" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z404"/>
+      <c r="AA404"/>
+    </row>
+    <row r="405" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A405"/>
       <c r="B405"/>
       <c r="C405"/>
@@ -12784,8 +13864,10 @@
       <c r="W405"/>
       <c r="X405"/>
       <c r="Y405"/>
-    </row>
-    <row r="406" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z405"/>
+      <c r="AA405"/>
+    </row>
+    <row r="406" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A406"/>
       <c r="B406"/>
       <c r="C406"/>
@@ -12811,8 +13893,10 @@
       <c r="W406"/>
       <c r="X406"/>
       <c r="Y406"/>
-    </row>
-    <row r="407" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z406"/>
+      <c r="AA406"/>
+    </row>
+    <row r="407" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A407"/>
       <c r="B407"/>
       <c r="C407"/>
@@ -12838,8 +13922,10 @@
       <c r="W407"/>
       <c r="X407"/>
       <c r="Y407"/>
-    </row>
-    <row r="408" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z407"/>
+      <c r="AA407"/>
+    </row>
+    <row r="408" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A408"/>
       <c r="B408"/>
       <c r="C408"/>
@@ -12865,8 +13951,10 @@
       <c r="W408"/>
       <c r="X408"/>
       <c r="Y408"/>
-    </row>
-    <row r="409" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z408"/>
+      <c r="AA408"/>
+    </row>
+    <row r="409" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A409"/>
       <c r="B409"/>
       <c r="C409"/>
@@ -12892,8 +13980,10 @@
       <c r="W409"/>
       <c r="X409"/>
       <c r="Y409"/>
-    </row>
-    <row r="410" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z409"/>
+      <c r="AA409"/>
+    </row>
+    <row r="410" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A410"/>
       <c r="B410"/>
       <c r="C410"/>
@@ -12919,8 +14009,10 @@
       <c r="W410"/>
       <c r="X410"/>
       <c r="Y410"/>
-    </row>
-    <row r="411" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z410"/>
+      <c r="AA410"/>
+    </row>
+    <row r="411" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A411"/>
       <c r="B411"/>
       <c r="C411"/>
@@ -12946,8 +14038,10 @@
       <c r="W411"/>
       <c r="X411"/>
       <c r="Y411"/>
-    </row>
-    <row r="412" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z411"/>
+      <c r="AA411"/>
+    </row>
+    <row r="412" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A412"/>
       <c r="B412"/>
       <c r="C412"/>
@@ -12973,8 +14067,10 @@
       <c r="W412"/>
       <c r="X412"/>
       <c r="Y412"/>
-    </row>
-    <row r="413" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z412"/>
+      <c r="AA412"/>
+    </row>
+    <row r="413" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A413"/>
       <c r="B413"/>
       <c r="C413"/>
@@ -13000,8 +14096,10 @@
       <c r="W413"/>
       <c r="X413"/>
       <c r="Y413"/>
-    </row>
-    <row r="414" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z413"/>
+      <c r="AA413"/>
+    </row>
+    <row r="414" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A414"/>
       <c r="B414"/>
       <c r="C414"/>
@@ -13027,8 +14125,10 @@
       <c r="W414"/>
       <c r="X414"/>
       <c r="Y414"/>
-    </row>
-    <row r="415" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z414"/>
+      <c r="AA414"/>
+    </row>
+    <row r="415" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A415"/>
       <c r="B415"/>
       <c r="C415"/>
@@ -13054,8 +14154,10 @@
       <c r="W415"/>
       <c r="X415"/>
       <c r="Y415"/>
-    </row>
-    <row r="416" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z415"/>
+      <c r="AA415"/>
+    </row>
+    <row r="416" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A416"/>
       <c r="B416"/>
       <c r="C416"/>
@@ -13081,8 +14183,10 @@
       <c r="W416"/>
       <c r="X416"/>
       <c r="Y416"/>
-    </row>
-    <row r="417" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z416"/>
+      <c r="AA416"/>
+    </row>
+    <row r="417" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A417"/>
       <c r="B417"/>
       <c r="C417"/>
@@ -13108,8 +14212,10 @@
       <c r="W417"/>
       <c r="X417"/>
       <c r="Y417"/>
-    </row>
-    <row r="418" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z417"/>
+      <c r="AA417"/>
+    </row>
+    <row r="418" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A418"/>
       <c r="B418"/>
       <c r="C418"/>
@@ -13135,8 +14241,10 @@
       <c r="W418"/>
       <c r="X418"/>
       <c r="Y418"/>
-    </row>
-    <row r="419" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z418"/>
+      <c r="AA418"/>
+    </row>
+    <row r="419" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A419"/>
       <c r="B419"/>
       <c r="C419"/>
@@ -13162,8 +14270,10 @@
       <c r="W419"/>
       <c r="X419"/>
       <c r="Y419"/>
-    </row>
-    <row r="420" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z419"/>
+      <c r="AA419"/>
+    </row>
+    <row r="420" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A420"/>
       <c r="B420"/>
       <c r="C420"/>
@@ -13189,8 +14299,10 @@
       <c r="W420"/>
       <c r="X420"/>
       <c r="Y420"/>
-    </row>
-    <row r="421" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z420"/>
+      <c r="AA420"/>
+    </row>
+    <row r="421" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A421"/>
       <c r="B421"/>
       <c r="C421"/>
@@ -13216,8 +14328,10 @@
       <c r="W421"/>
       <c r="X421"/>
       <c r="Y421"/>
-    </row>
-    <row r="422" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z421"/>
+      <c r="AA421"/>
+    </row>
+    <row r="422" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A422"/>
       <c r="B422"/>
       <c r="C422"/>
@@ -13243,8 +14357,10 @@
       <c r="W422"/>
       <c r="X422"/>
       <c r="Y422"/>
-    </row>
-    <row r="423" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z422"/>
+      <c r="AA422"/>
+    </row>
+    <row r="423" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A423"/>
       <c r="B423"/>
       <c r="C423"/>
@@ -13270,8 +14386,10 @@
       <c r="W423"/>
       <c r="X423"/>
       <c r="Y423"/>
-    </row>
-    <row r="424" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z423"/>
+      <c r="AA423"/>
+    </row>
+    <row r="424" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
@@ -13297,8 +14415,10 @@
       <c r="W424"/>
       <c r="X424"/>
       <c r="Y424"/>
-    </row>
-    <row r="425" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z424"/>
+      <c r="AA424"/>
+    </row>
+    <row r="425" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
@@ -13324,8 +14444,10 @@
       <c r="W425"/>
       <c r="X425"/>
       <c r="Y425"/>
-    </row>
-    <row r="426" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z425"/>
+      <c r="AA425"/>
+    </row>
+    <row r="426" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
@@ -13351,8 +14473,10 @@
       <c r="W426"/>
       <c r="X426"/>
       <c r="Y426"/>
-    </row>
-    <row r="427" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z426"/>
+      <c r="AA426"/>
+    </row>
+    <row r="427" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
@@ -13378,8 +14502,10 @@
       <c r="W427"/>
       <c r="X427"/>
       <c r="Y427"/>
-    </row>
-    <row r="428" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z427"/>
+      <c r="AA427"/>
+    </row>
+    <row r="428" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
@@ -13405,8 +14531,10 @@
       <c r="W428"/>
       <c r="X428"/>
       <c r="Y428"/>
-    </row>
-    <row r="429" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z428"/>
+      <c r="AA428"/>
+    </row>
+    <row r="429" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
@@ -13432,8 +14560,10 @@
       <c r="W429"/>
       <c r="X429"/>
       <c r="Y429"/>
-    </row>
-    <row r="430" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z429"/>
+      <c r="AA429"/>
+    </row>
+    <row r="430" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
@@ -13459,8 +14589,10 @@
       <c r="W430"/>
       <c r="X430"/>
       <c r="Y430"/>
-    </row>
-    <row r="431" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z430"/>
+      <c r="AA430"/>
+    </row>
+    <row r="431" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
@@ -13486,8 +14618,10 @@
       <c r="W431"/>
       <c r="X431"/>
       <c r="Y431"/>
-    </row>
-    <row r="432" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z431"/>
+      <c r="AA431"/>
+    </row>
+    <row r="432" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
@@ -13513,8 +14647,10 @@
       <c r="W432"/>
       <c r="X432"/>
       <c r="Y432"/>
-    </row>
-    <row r="433" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z432"/>
+      <c r="AA432"/>
+    </row>
+    <row r="433" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
@@ -13540,8 +14676,10 @@
       <c r="W433"/>
       <c r="X433"/>
       <c r="Y433"/>
-    </row>
-    <row r="434" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z433"/>
+      <c r="AA433"/>
+    </row>
+    <row r="434" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
@@ -13567,8 +14705,10 @@
       <c r="W434"/>
       <c r="X434"/>
       <c r="Y434"/>
-    </row>
-    <row r="435" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z434"/>
+      <c r="AA434"/>
+    </row>
+    <row r="435" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
@@ -13594,8 +14734,10 @@
       <c r="W435"/>
       <c r="X435"/>
       <c r="Y435"/>
-    </row>
-    <row r="436" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z435"/>
+      <c r="AA435"/>
+    </row>
+    <row r="436" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
@@ -13621,8 +14763,10 @@
       <c r="W436"/>
       <c r="X436"/>
       <c r="Y436"/>
-    </row>
-    <row r="437" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z436"/>
+      <c r="AA436"/>
+    </row>
+    <row r="437" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
@@ -13648,8 +14792,10 @@
       <c r="W437"/>
       <c r="X437"/>
       <c r="Y437"/>
-    </row>
-    <row r="438" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z437"/>
+      <c r="AA437"/>
+    </row>
+    <row r="438" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
@@ -13675,8 +14821,10 @@
       <c r="W438"/>
       <c r="X438"/>
       <c r="Y438"/>
-    </row>
-    <row r="439" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z438"/>
+      <c r="AA438"/>
+    </row>
+    <row r="439" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
@@ -13702,8 +14850,10 @@
       <c r="W439"/>
       <c r="X439"/>
       <c r="Y439"/>
-    </row>
-    <row r="440" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z439"/>
+      <c r="AA439"/>
+    </row>
+    <row r="440" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
@@ -13729,8 +14879,10 @@
       <c r="W440"/>
       <c r="X440"/>
       <c r="Y440"/>
-    </row>
-    <row r="441" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z440"/>
+      <c r="AA440"/>
+    </row>
+    <row r="441" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
@@ -13756,8 +14908,10 @@
       <c r="W441"/>
       <c r="X441"/>
       <c r="Y441"/>
-    </row>
-    <row r="442" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z441"/>
+      <c r="AA441"/>
+    </row>
+    <row r="442" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
@@ -13783,8 +14937,10 @@
       <c r="W442"/>
       <c r="X442"/>
       <c r="Y442"/>
-    </row>
-    <row r="443" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z442"/>
+      <c r="AA442"/>
+    </row>
+    <row r="443" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
@@ -13810,8 +14966,10 @@
       <c r="W443"/>
       <c r="X443"/>
       <c r="Y443"/>
-    </row>
-    <row r="444" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z443"/>
+      <c r="AA443"/>
+    </row>
+    <row r="444" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A444"/>
       <c r="B444"/>
       <c r="C444"/>
@@ -13837,8 +14995,10 @@
       <c r="W444"/>
       <c r="X444"/>
       <c r="Y444"/>
-    </row>
-    <row r="445" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z444"/>
+      <c r="AA444"/>
+    </row>
+    <row r="445" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A445"/>
       <c r="B445"/>
       <c r="C445"/>
@@ -13864,8 +15024,10 @@
       <c r="W445"/>
       <c r="X445"/>
       <c r="Y445"/>
-    </row>
-    <row r="446" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z445"/>
+      <c r="AA445"/>
+    </row>
+    <row r="446" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A446"/>
       <c r="B446"/>
       <c r="C446"/>
@@ -13891,8 +15053,10 @@
       <c r="W446"/>
       <c r="X446"/>
       <c r="Y446"/>
-    </row>
-    <row r="447" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z446"/>
+      <c r="AA446"/>
+    </row>
+    <row r="447" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A447"/>
       <c r="B447"/>
       <c r="C447"/>
@@ -13918,8 +15082,10 @@
       <c r="W447"/>
       <c r="X447"/>
       <c r="Y447"/>
-    </row>
-    <row r="448" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z447"/>
+      <c r="AA447"/>
+    </row>
+    <row r="448" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A448"/>
       <c r="B448"/>
       <c r="C448"/>
@@ -13945,8 +15111,10 @@
       <c r="W448"/>
       <c r="X448"/>
       <c r="Y448"/>
-    </row>
-    <row r="449" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z448"/>
+      <c r="AA448"/>
+    </row>
+    <row r="449" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A449"/>
       <c r="B449"/>
       <c r="C449"/>
@@ -13972,8 +15140,10 @@
       <c r="W449"/>
       <c r="X449"/>
       <c r="Y449"/>
-    </row>
-    <row r="450" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z449"/>
+      <c r="AA449"/>
+    </row>
+    <row r="450" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A450"/>
       <c r="B450"/>
       <c r="C450"/>
@@ -13999,8 +15169,10 @@
       <c r="W450"/>
       <c r="X450"/>
       <c r="Y450"/>
-    </row>
-    <row r="451" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z450"/>
+      <c r="AA450"/>
+    </row>
+    <row r="451" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A451"/>
       <c r="B451"/>
       <c r="C451"/>
@@ -14026,8 +15198,10 @@
       <c r="W451"/>
       <c r="X451"/>
       <c r="Y451"/>
-    </row>
-    <row r="452" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z451"/>
+      <c r="AA451"/>
+    </row>
+    <row r="452" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A452"/>
       <c r="B452"/>
       <c r="C452"/>
@@ -14053,8 +15227,10 @@
       <c r="W452"/>
       <c r="X452"/>
       <c r="Y452"/>
-    </row>
-    <row r="453" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z452"/>
+      <c r="AA452"/>
+    </row>
+    <row r="453" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A453"/>
       <c r="B453"/>
       <c r="C453"/>
@@ -14080,8 +15256,10 @@
       <c r="W453"/>
       <c r="X453"/>
       <c r="Y453"/>
-    </row>
-    <row r="454" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z453"/>
+      <c r="AA453"/>
+    </row>
+    <row r="454" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A454"/>
       <c r="B454"/>
       <c r="C454"/>
@@ -14107,8 +15285,10 @@
       <c r="W454"/>
       <c r="X454"/>
       <c r="Y454"/>
-    </row>
-    <row r="455" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z454"/>
+      <c r="AA454"/>
+    </row>
+    <row r="455" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A455"/>
       <c r="B455"/>
       <c r="C455"/>
@@ -14134,8 +15314,10 @@
       <c r="W455"/>
       <c r="X455"/>
       <c r="Y455"/>
-    </row>
-    <row r="456" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z455"/>
+      <c r="AA455"/>
+    </row>
+    <row r="456" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A456"/>
       <c r="B456"/>
       <c r="C456"/>
@@ -14161,8 +15343,10 @@
       <c r="W456"/>
       <c r="X456"/>
       <c r="Y456"/>
-    </row>
-    <row r="457" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z456"/>
+      <c r="AA456"/>
+    </row>
+    <row r="457" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A457"/>
       <c r="B457"/>
       <c r="C457"/>
@@ -14188,8 +15372,10 @@
       <c r="W457"/>
       <c r="X457"/>
       <c r="Y457"/>
-    </row>
-    <row r="458" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z457"/>
+      <c r="AA457"/>
+    </row>
+    <row r="458" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A458"/>
       <c r="B458"/>
       <c r="C458"/>
@@ -14215,8 +15401,10 @@
       <c r="W458"/>
       <c r="X458"/>
       <c r="Y458"/>
-    </row>
-    <row r="459" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z458"/>
+      <c r="AA458"/>
+    </row>
+    <row r="459" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A459"/>
       <c r="B459"/>
       <c r="C459"/>
@@ -14242,8 +15430,10 @@
       <c r="W459"/>
       <c r="X459"/>
       <c r="Y459"/>
-    </row>
-    <row r="460" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z459"/>
+      <c r="AA459"/>
+    </row>
+    <row r="460" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A460"/>
       <c r="B460"/>
       <c r="C460"/>
@@ -14269,8 +15459,10 @@
       <c r="W460"/>
       <c r="X460"/>
       <c r="Y460"/>
-    </row>
-    <row r="461" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z460"/>
+      <c r="AA460"/>
+    </row>
+    <row r="461" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A461"/>
       <c r="B461"/>
       <c r="C461"/>
@@ -14296,8 +15488,10 @@
       <c r="W461"/>
       <c r="X461"/>
       <c r="Y461"/>
-    </row>
-    <row r="462" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z461"/>
+      <c r="AA461"/>
+    </row>
+    <row r="462" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A462"/>
       <c r="B462"/>
       <c r="C462"/>
@@ -14323,8 +15517,10 @@
       <c r="W462"/>
       <c r="X462"/>
       <c r="Y462"/>
-    </row>
-    <row r="463" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z462"/>
+      <c r="AA462"/>
+    </row>
+    <row r="463" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A463"/>
       <c r="B463"/>
       <c r="C463"/>
@@ -14350,8 +15546,10 @@
       <c r="W463"/>
       <c r="X463"/>
       <c r="Y463"/>
-    </row>
-    <row r="464" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z463"/>
+      <c r="AA463"/>
+    </row>
+    <row r="464" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A464"/>
       <c r="B464"/>
       <c r="C464"/>
@@ -14377,8 +15575,10 @@
       <c r="W464"/>
       <c r="X464"/>
       <c r="Y464"/>
-    </row>
-    <row r="465" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z464"/>
+      <c r="AA464"/>
+    </row>
+    <row r="465" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A465"/>
       <c r="B465"/>
       <c r="C465"/>
@@ -14404,8 +15604,10 @@
       <c r="W465"/>
       <c r="X465"/>
       <c r="Y465"/>
-    </row>
-    <row r="466" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z465"/>
+      <c r="AA465"/>
+    </row>
+    <row r="466" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A466"/>
       <c r="B466"/>
       <c r="C466"/>
@@ -14431,8 +15633,10 @@
       <c r="W466"/>
       <c r="X466"/>
       <c r="Y466"/>
-    </row>
-    <row r="467" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z466"/>
+      <c r="AA466"/>
+    </row>
+    <row r="467" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A467"/>
       <c r="B467"/>
       <c r="C467"/>
@@ -14458,8 +15662,10 @@
       <c r="W467"/>
       <c r="X467"/>
       <c r="Y467"/>
-    </row>
-    <row r="468" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z467"/>
+      <c r="AA467"/>
+    </row>
+    <row r="468" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A468"/>
       <c r="B468"/>
       <c r="C468"/>
@@ -14485,8 +15691,10 @@
       <c r="W468"/>
       <c r="X468"/>
       <c r="Y468"/>
-    </row>
-    <row r="469" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z468"/>
+      <c r="AA468"/>
+    </row>
+    <row r="469" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A469"/>
       <c r="B469"/>
       <c r="C469"/>
@@ -14512,8 +15720,10 @@
       <c r="W469"/>
       <c r="X469"/>
       <c r="Y469"/>
-    </row>
-    <row r="470" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z469"/>
+      <c r="AA469"/>
+    </row>
+    <row r="470" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A470"/>
       <c r="B470"/>
       <c r="C470"/>
@@ -14539,8 +15749,10 @@
       <c r="W470"/>
       <c r="X470"/>
       <c r="Y470"/>
-    </row>
-    <row r="471" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z470"/>
+      <c r="AA470"/>
+    </row>
+    <row r="471" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A471"/>
       <c r="B471"/>
       <c r="C471"/>
@@ -14566,8 +15778,10 @@
       <c r="W471"/>
       <c r="X471"/>
       <c r="Y471"/>
-    </row>
-    <row r="472" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z471"/>
+      <c r="AA471"/>
+    </row>
+    <row r="472" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A472"/>
       <c r="B472"/>
       <c r="C472"/>
@@ -14593,8 +15807,10 @@
       <c r="W472"/>
       <c r="X472"/>
       <c r="Y472"/>
-    </row>
-    <row r="473" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z472"/>
+      <c r="AA472"/>
+    </row>
+    <row r="473" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A473"/>
       <c r="B473"/>
       <c r="C473"/>
@@ -14620,8 +15836,10 @@
       <c r="W473"/>
       <c r="X473"/>
       <c r="Y473"/>
-    </row>
-    <row r="474" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z473"/>
+      <c r="AA473"/>
+    </row>
+    <row r="474" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A474"/>
       <c r="B474"/>
       <c r="C474"/>
@@ -14647,8 +15865,10 @@
       <c r="W474"/>
       <c r="X474"/>
       <c r="Y474"/>
-    </row>
-    <row r="475" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z474"/>
+      <c r="AA474"/>
+    </row>
+    <row r="475" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A475"/>
       <c r="B475"/>
       <c r="C475"/>
@@ -14674,8 +15894,10 @@
       <c r="W475"/>
       <c r="X475"/>
       <c r="Y475"/>
-    </row>
-    <row r="476" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z475"/>
+      <c r="AA475"/>
+    </row>
+    <row r="476" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A476"/>
       <c r="B476"/>
       <c r="C476"/>
@@ -14701,8 +15923,10 @@
       <c r="W476"/>
       <c r="X476"/>
       <c r="Y476"/>
-    </row>
-    <row r="477" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z476"/>
+      <c r="AA476"/>
+    </row>
+    <row r="477" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A477"/>
       <c r="B477"/>
       <c r="C477"/>
@@ -14728,8 +15952,10 @@
       <c r="W477"/>
       <c r="X477"/>
       <c r="Y477"/>
-    </row>
-    <row r="478" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z477"/>
+      <c r="AA477"/>
+    </row>
+    <row r="478" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A478"/>
       <c r="B478"/>
       <c r="C478"/>
@@ -14755,8 +15981,10 @@
       <c r="W478"/>
       <c r="X478"/>
       <c r="Y478"/>
-    </row>
-    <row r="479" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z478"/>
+      <c r="AA478"/>
+    </row>
+    <row r="479" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A479"/>
       <c r="B479"/>
       <c r="C479"/>
@@ -14782,8 +16010,10 @@
       <c r="W479"/>
       <c r="X479"/>
       <c r="Y479"/>
-    </row>
-    <row r="480" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z479"/>
+      <c r="AA479"/>
+    </row>
+    <row r="480" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A480"/>
       <c r="B480"/>
       <c r="C480"/>
@@ -14809,8 +16039,10 @@
       <c r="W480"/>
       <c r="X480"/>
       <c r="Y480"/>
-    </row>
-    <row r="481" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z480"/>
+      <c r="AA480"/>
+    </row>
+    <row r="481" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A481"/>
       <c r="B481"/>
       <c r="C481"/>
@@ -14836,8 +16068,10 @@
       <c r="W481"/>
       <c r="X481"/>
       <c r="Y481"/>
-    </row>
-    <row r="482" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z481"/>
+      <c r="AA481"/>
+    </row>
+    <row r="482" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A482"/>
       <c r="B482"/>
       <c r="C482"/>
@@ -14863,8 +16097,10 @@
       <c r="W482"/>
       <c r="X482"/>
       <c r="Y482"/>
-    </row>
-    <row r="483" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z482"/>
+      <c r="AA482"/>
+    </row>
+    <row r="483" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A483"/>
       <c r="B483"/>
       <c r="C483"/>
@@ -14890,8 +16126,10 @@
       <c r="W483"/>
       <c r="X483"/>
       <c r="Y483"/>
-    </row>
-    <row r="484" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z483"/>
+      <c r="AA483"/>
+    </row>
+    <row r="484" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A484"/>
       <c r="B484"/>
       <c r="C484"/>
@@ -14917,8 +16155,10 @@
       <c r="W484"/>
       <c r="X484"/>
       <c r="Y484"/>
-    </row>
-    <row r="485" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z484"/>
+      <c r="AA484"/>
+    </row>
+    <row r="485" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A485"/>
       <c r="B485"/>
       <c r="C485"/>
@@ -14944,8 +16184,10 @@
       <c r="W485"/>
       <c r="X485"/>
       <c r="Y485"/>
-    </row>
-    <row r="486" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z485"/>
+      <c r="AA485"/>
+    </row>
+    <row r="486" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A486"/>
       <c r="B486"/>
       <c r="C486"/>
@@ -14971,8 +16213,10 @@
       <c r="W486"/>
       <c r="X486"/>
       <c r="Y486"/>
-    </row>
-    <row r="487" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z486"/>
+      <c r="AA486"/>
+    </row>
+    <row r="487" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A487"/>
       <c r="B487"/>
       <c r="C487"/>
@@ -14998,8 +16242,10 @@
       <c r="W487"/>
       <c r="X487"/>
       <c r="Y487"/>
-    </row>
-    <row r="488" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z487"/>
+      <c r="AA487"/>
+    </row>
+    <row r="488" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A488"/>
       <c r="B488"/>
       <c r="C488"/>
@@ -15025,8 +16271,10 @@
       <c r="W488"/>
       <c r="X488"/>
       <c r="Y488"/>
-    </row>
-    <row r="489" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z488"/>
+      <c r="AA488"/>
+    </row>
+    <row r="489" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A489"/>
       <c r="B489"/>
       <c r="C489"/>
@@ -15052,8 +16300,10 @@
       <c r="W489"/>
       <c r="X489"/>
       <c r="Y489"/>
-    </row>
-    <row r="490" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z489"/>
+      <c r="AA489"/>
+    </row>
+    <row r="490" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A490"/>
       <c r="B490"/>
       <c r="C490"/>
@@ -15079,8 +16329,10 @@
       <c r="W490"/>
       <c r="X490"/>
       <c r="Y490"/>
-    </row>
-    <row r="491" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z490"/>
+      <c r="AA490"/>
+    </row>
+    <row r="491" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A491"/>
       <c r="B491"/>
       <c r="C491"/>
@@ -15106,8 +16358,10 @@
       <c r="W491"/>
       <c r="X491"/>
       <c r="Y491"/>
-    </row>
-    <row r="492" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z491"/>
+      <c r="AA491"/>
+    </row>
+    <row r="492" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A492"/>
       <c r="B492"/>
       <c r="C492"/>
@@ -15133,8 +16387,10 @@
       <c r="W492"/>
       <c r="X492"/>
       <c r="Y492"/>
-    </row>
-    <row r="493" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z492"/>
+      <c r="AA492"/>
+    </row>
+    <row r="493" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A493"/>
       <c r="B493"/>
       <c r="C493"/>
@@ -15160,8 +16416,10 @@
       <c r="W493"/>
       <c r="X493"/>
       <c r="Y493"/>
-    </row>
-    <row r="494" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z493"/>
+      <c r="AA493"/>
+    </row>
+    <row r="494" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A494"/>
       <c r="B494"/>
       <c r="C494"/>
@@ -15187,8 +16445,10 @@
       <c r="W494"/>
       <c r="X494"/>
       <c r="Y494"/>
-    </row>
-    <row r="495" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z494"/>
+      <c r="AA494"/>
+    </row>
+    <row r="495" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A495"/>
       <c r="B495"/>
       <c r="C495"/>
@@ -15214,8 +16474,10 @@
       <c r="W495"/>
       <c r="X495"/>
       <c r="Y495"/>
-    </row>
-    <row r="496" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z495"/>
+      <c r="AA495"/>
+    </row>
+    <row r="496" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A496"/>
       <c r="B496"/>
       <c r="C496"/>
@@ -15241,8 +16503,10 @@
       <c r="W496"/>
       <c r="X496"/>
       <c r="Y496"/>
-    </row>
-    <row r="497" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z496"/>
+      <c r="AA496"/>
+    </row>
+    <row r="497" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A497"/>
       <c r="B497"/>
       <c r="C497"/>
@@ -15268,8 +16532,10 @@
       <c r="W497"/>
       <c r="X497"/>
       <c r="Y497"/>
-    </row>
-    <row r="498" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z497"/>
+      <c r="AA497"/>
+    </row>
+    <row r="498" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A498"/>
       <c r="B498"/>
       <c r="C498"/>
@@ -15295,8 +16561,10 @@
       <c r="W498"/>
       <c r="X498"/>
       <c r="Y498"/>
-    </row>
-    <row r="499" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z498"/>
+      <c r="AA498"/>
+    </row>
+    <row r="499" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A499"/>
       <c r="B499"/>
       <c r="C499"/>
@@ -15322,8 +16590,10 @@
       <c r="W499"/>
       <c r="X499"/>
       <c r="Y499"/>
-    </row>
-    <row r="500" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z499"/>
+      <c r="AA499"/>
+    </row>
+    <row r="500" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A500"/>
       <c r="B500"/>
       <c r="C500"/>
@@ -15349,8 +16619,10 @@
       <c r="W500"/>
       <c r="X500"/>
       <c r="Y500"/>
-    </row>
-    <row r="501" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z500"/>
+      <c r="AA500"/>
+    </row>
+    <row r="501" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A501"/>
       <c r="B501"/>
       <c r="C501"/>
@@ -15376,8 +16648,10 @@
       <c r="W501"/>
       <c r="X501"/>
       <c r="Y501"/>
-    </row>
-    <row r="502" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z501"/>
+      <c r="AA501"/>
+    </row>
+    <row r="502" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A502"/>
       <c r="B502"/>
       <c r="C502"/>
@@ -15403,8 +16677,10 @@
       <c r="W502"/>
       <c r="X502"/>
       <c r="Y502"/>
-    </row>
-    <row r="503" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z502"/>
+      <c r="AA502"/>
+    </row>
+    <row r="503" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A503"/>
       <c r="B503"/>
       <c r="C503"/>
@@ -15430,8 +16706,10 @@
       <c r="W503"/>
       <c r="X503"/>
       <c r="Y503"/>
-    </row>
-    <row r="504" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z503"/>
+      <c r="AA503"/>
+    </row>
+    <row r="504" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A504"/>
       <c r="B504"/>
       <c r="C504"/>
@@ -15457,8 +16735,10 @@
       <c r="W504"/>
       <c r="X504"/>
       <c r="Y504"/>
-    </row>
-    <row r="505" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z504"/>
+      <c r="AA504"/>
+    </row>
+    <row r="505" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A505"/>
       <c r="B505"/>
       <c r="C505"/>
@@ -15484,8 +16764,10 @@
       <c r="W505"/>
       <c r="X505"/>
       <c r="Y505"/>
-    </row>
-    <row r="506" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z505"/>
+      <c r="AA505"/>
+    </row>
+    <row r="506" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A506"/>
       <c r="B506"/>
       <c r="C506"/>
@@ -15511,8 +16793,10 @@
       <c r="W506"/>
       <c r="X506"/>
       <c r="Y506"/>
-    </row>
-    <row r="507" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z506"/>
+      <c r="AA506"/>
+    </row>
+    <row r="507" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A507"/>
       <c r="B507"/>
       <c r="C507"/>
@@ -15538,8 +16822,10 @@
       <c r="W507"/>
       <c r="X507"/>
       <c r="Y507"/>
-    </row>
-    <row r="508" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z507"/>
+      <c r="AA507"/>
+    </row>
+    <row r="508" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A508"/>
       <c r="B508"/>
       <c r="C508"/>
@@ -15565,8 +16851,10 @@
       <c r="W508"/>
       <c r="X508"/>
       <c r="Y508"/>
-    </row>
-    <row r="509" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z508"/>
+      <c r="AA508"/>
+    </row>
+    <row r="509" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A509"/>
       <c r="B509"/>
       <c r="C509"/>
@@ -15592,8 +16880,10 @@
       <c r="W509"/>
       <c r="X509"/>
       <c r="Y509"/>
-    </row>
-    <row r="510" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z509"/>
+      <c r="AA509"/>
+    </row>
+    <row r="510" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A510"/>
       <c r="B510"/>
       <c r="C510"/>
@@ -15619,8 +16909,10 @@
       <c r="W510"/>
       <c r="X510"/>
       <c r="Y510"/>
-    </row>
-    <row r="511" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z510"/>
+      <c r="AA510"/>
+    </row>
+    <row r="511" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A511"/>
       <c r="B511"/>
       <c r="C511"/>
@@ -15646,8 +16938,10 @@
       <c r="W511"/>
       <c r="X511"/>
       <c r="Y511"/>
-    </row>
-    <row r="512" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z511"/>
+      <c r="AA511"/>
+    </row>
+    <row r="512" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A512"/>
       <c r="B512"/>
       <c r="C512"/>
@@ -15673,8 +16967,10 @@
       <c r="W512"/>
       <c r="X512"/>
       <c r="Y512"/>
-    </row>
-    <row r="513" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z512"/>
+      <c r="AA512"/>
+    </row>
+    <row r="513" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A513"/>
       <c r="B513"/>
       <c r="C513"/>
@@ -15700,8 +16996,10 @@
       <c r="W513"/>
       <c r="X513"/>
       <c r="Y513"/>
-    </row>
-    <row r="514" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z513"/>
+      <c r="AA513"/>
+    </row>
+    <row r="514" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A514"/>
       <c r="B514"/>
       <c r="C514"/>
@@ -15727,8 +17025,10 @@
       <c r="W514"/>
       <c r="X514"/>
       <c r="Y514"/>
-    </row>
-    <row r="515" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z514"/>
+      <c r="AA514"/>
+    </row>
+    <row r="515" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A515"/>
       <c r="B515"/>
       <c r="C515"/>
@@ -15754,8 +17054,10 @@
       <c r="W515"/>
       <c r="X515"/>
       <c r="Y515"/>
-    </row>
-    <row r="516" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z515"/>
+      <c r="AA515"/>
+    </row>
+    <row r="516" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A516"/>
       <c r="B516"/>
       <c r="C516"/>
@@ -15781,8 +17083,10 @@
       <c r="W516"/>
       <c r="X516"/>
       <c r="Y516"/>
-    </row>
-    <row r="517" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z516"/>
+      <c r="AA516"/>
+    </row>
+    <row r="517" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A517"/>
       <c r="B517"/>
       <c r="C517"/>
@@ -15808,8 +17112,10 @@
       <c r="W517"/>
       <c r="X517"/>
       <c r="Y517"/>
-    </row>
-    <row r="518" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z517"/>
+      <c r="AA517"/>
+    </row>
+    <row r="518" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A518"/>
       <c r="B518"/>
       <c r="C518"/>
@@ -15835,8 +17141,10 @@
       <c r="W518"/>
       <c r="X518"/>
       <c r="Y518"/>
-    </row>
-    <row r="519" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z518"/>
+      <c r="AA518"/>
+    </row>
+    <row r="519" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A519"/>
       <c r="B519"/>
       <c r="C519"/>
@@ -15862,11 +17170,16 @@
       <c r="W519"/>
       <c r="X519"/>
       <c r="Y519"/>
+      <c r="Z519"/>
+      <c r="AA519"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
-    <sortCondition ref="E2:E47"/>
-    <sortCondition ref="F2:F47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J27">
+    <sortCondition ref="D2:D27"/>
+    <sortCondition ref="E2:E27"/>
+    <sortCondition ref="F2:F27"/>
+    <sortCondition ref="G2:G27"/>
+    <sortCondition ref="H2:H27"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE792A4-C264-0049-BA03-D356E64B7649}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6476C20-ECA0-1245-9B8F-087A4ABE76A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4360" yWindow="7220" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1582,7 +1582,7 @@
   <dimension ref="A1:AA519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="A1:J27"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>

--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6476C20-ECA0-1245-9B8F-087A4ABE76A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10ABDB9-5B96-CA4A-BD6E-398273430282}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4360" yWindow="7220" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/tabular/core/cress-refseqs-side-data.xlsx
+++ b/tabular/core/cress-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10ABDB9-5B96-CA4A-BD6E-398273430282}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFE4349-9E2A-D24A-A9DB-B39F3C83F976}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4360" yWindow="7220" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,13 +427,13 @@
     <t>Protobacilladnavirus</t>
   </si>
   <si>
-    <t>superorder</t>
-  </si>
-  <si>
     <t>Arfiviricetes</t>
   </si>
   <si>
     <t>Repensiviricetes</t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1582,7 @@
   <dimension ref="A1:AA519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D5" sqref="A1:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1610,7 +1610,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>109</v>
@@ -1642,7 +1642,7 @@
         <v>120</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>124</v>
@@ -1691,7 +1691,7 @@
         <v>121</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>124</v>
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>125</v>
@@ -1789,7 +1789,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>125</v>
@@ -1838,7 +1838,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>125</v>
@@ -1887,7 +1887,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>125</v>
@@ -1936,7 +1936,7 @@
         <v>67</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>125</v>
@@ -1985,7 +1985,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>126</v>
@@ -2034,7 +2034,7 @@
         <v>118</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>122</v>
@@ -2083,7 +2083,7 @@
         <v>117</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>122</v>
@@ -2132,7 +2132,7 @@
         <v>70</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>127</v>
@@ -2181,7 +2181,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>127</v>
@@ -2230,7 +2230,7 @@
         <v>81</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>128</v>
@@ -2279,7 +2279,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>128</v>
@@ -2328,7 +2328,7 @@
         <v>83</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>128</v>
@@ -2377,7 +2377,7 @@
         <v>84</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>128</v>
@@ -2426,7 +2426,7 @@
         <v>85</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>128</v>
@@ -2475,7 +2475,7 @@
         <v>87</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>128</v>
@@ -2524,7 +2524,7 @@
         <v>86</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>128</v>
@@ -2573,7 +2573,7 @@
         <v>88</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>128</v>
@@ -2622,7 +2622,7 @@
         <v>89</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>128</v>
@@ -2671,7 +2671,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>128</v>
@@ -2720,7 +2720,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>128</v>
@@ -2769,7 +2769,7 @@
         <v>57</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>128</v>
@@ -2818,7 +2818,7 @@
         <v>58</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>128</v>
@@ -2867,7 +2867,7 @@
         <v>59</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>128</v>
